--- a/Application/AccountReport (03 Oct 2016).xlsx
+++ b/Application/AccountReport (03 Oct 2016).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -59,91 +59,85 @@
     <t>0</t>
   </si>
   <si>
+    <t>Rossouw</t>
+  </si>
+  <si>
+    <t>Binedell</t>
+  </si>
+  <si>
+    <t>0234567890</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Bunny</t>
+  </si>
+  <si>
+    <t>0797979797</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>0283744444</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Cosby</t>
+  </si>
+  <si>
+    <t>0346969874</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>DiCaprio</t>
+  </si>
+  <si>
+    <t>0314569832</t>
+  </si>
+  <si>
+    <t>Harison</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>0786653216</t>
+  </si>
+  <si>
+    <t>Selena</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>0364498572</t>
+  </si>
+  <si>
+    <t>Afro</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>0324487569</t>
+  </si>
+  <si>
     <t>Michael</t>
-  </si>
-  <si>
-    <t>Bay</t>
-  </si>
-  <si>
-    <t>0645554478</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Rossouw</t>
-  </si>
-  <si>
-    <t>Binedell</t>
-  </si>
-  <si>
-    <t>0234567890</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Bugs</t>
-  </si>
-  <si>
-    <t>Bunny</t>
-  </si>
-  <si>
-    <t>0797979797</t>
-  </si>
-  <si>
-    <t>Bonnie</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>0283744444</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Cosby</t>
-  </si>
-  <si>
-    <t>0346969874</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>DiCaprio</t>
-  </si>
-  <si>
-    <t>0314569832</t>
-  </si>
-  <si>
-    <t>Harison</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>0786653216</t>
-  </si>
-  <si>
-    <t>Selena</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>0364498572</t>
-  </si>
-  <si>
-    <t>Afro</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>0324487569</t>
   </si>
   <si>
     <t>Jackson</t>
@@ -738,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -782,16 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1279,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s" s="51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s" s="52">
         <v>1</v>
@@ -1305,7 +1289,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s" s="59">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s" s="60">
         <v>1</v>
@@ -1348,16 +1332,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="72">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="73">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="74">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s" s="75">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s" s="76">
         <v>1</v>
@@ -1383,7 +1367,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s" s="83">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s" s="84">
         <v>1</v>
@@ -1409,7 +1393,7 @@
         <v>37</v>
       </c>
       <c r="D12" t="s" s="91">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s" s="92">
         <v>1</v>
@@ -1478,16 +1462,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="112">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s" s="113">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="114">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s" s="115">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s" s="116">
         <v>1</v>
@@ -1504,10 +1488,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="120">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s" s="121">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s" s="122">
         <v>48</v>
@@ -1533,10 +1517,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s" s="129">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s" s="130">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s" s="131">
         <v>22</v>
@@ -1556,13 +1540,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="136">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="137">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="138">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s" s="139">
         <v>18</v>
@@ -1582,16 +1566,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="144">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s" s="145">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s" s="146">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s" s="147">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s" s="148">
         <v>1</v>
@@ -1614,7 +1598,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s" s="154">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s" s="155">
         <v>14</v>
@@ -1634,13 +1618,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="160">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s" s="161">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s" s="162">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s" s="163">
         <v>14</v>
@@ -1660,16 +1644,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="168">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s" s="169">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s" s="170">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s" s="171">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s" s="172">
         <v>1</v>
@@ -1692,7 +1676,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s" s="178">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s" s="179">
         <v>22</v>
@@ -1712,16 +1696,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="184">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s" s="185">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s" s="186">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s" s="187">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s" s="188">
         <v>1</v>
@@ -1738,16 +1722,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="192">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s" s="193">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s" s="194">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s" s="195">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s" s="196">
         <v>1</v>
@@ -1764,16 +1748,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="200">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s" s="201">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s" s="202">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s" s="203">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s" s="204">
         <v>1</v>
@@ -1790,16 +1774,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="208">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="209">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s" s="210">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s" s="211">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s" s="212">
         <v>1</v>
@@ -1816,16 +1800,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="216">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s" s="217">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s" s="218">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s" s="219">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s" s="220">
         <v>1</v>
@@ -1848,10 +1832,10 @@
         <v>83</v>
       </c>
       <c r="C29" t="s" s="226">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s" s="227">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s" s="228">
         <v>1</v>
@@ -1868,13 +1852,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="232">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="233">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s" s="234">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s" s="235">
         <v>22</v>
@@ -1894,13 +1878,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="240">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s" s="241">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s" s="242">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s" s="243">
         <v>18</v>
@@ -1920,16 +1904,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="248">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s" s="249">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s" s="250">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s" s="251">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s" s="252">
         <v>1</v>
@@ -1946,16 +1930,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="256">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s" s="257">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s" s="258">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s" s="259">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s" s="260">
         <v>1</v>
@@ -1967,32 +1951,6 @@
         <v>1</v>
       </c>
       <c r="H33" t="s" s="263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="264">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s" s="265">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s" s="266">
-        <v>98</v>
-      </c>
-      <c r="D34" t="s" s="267">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s" s="268">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s" s="269">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s" s="270">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s" s="271">
         <v>1</v>
       </c>
     </row>

--- a/Application/AccountReport (03 Oct 2016).xlsx
+++ b/Application/AccountReport (03 Oct 2016).xlsx
@@ -146,7 +146,7 @@
     <t>0989898987</t>
   </si>
   <si>
-    <t>Indiana</t>
+    <t>Indianah</t>
   </si>
   <si>
     <t>Jones</t>

--- a/Application/AccountReport (03 Oct 2016).xlsx
+++ b/Application/AccountReport (03 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="37">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -78,100 +78,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Keanu Arendze</t>
-  </si>
-  <si>
-    <t>0746446895</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Christiaan Barnard</t>
-  </si>
-  <si>
-    <t>0219976485</t>
-  </si>
-  <si>
     <t>Rossouw Binedell</t>
   </si>
   <si>
     <t>0234567890</t>
   </si>
   <si>
-    <t>Sirius Black</t>
-  </si>
-  <si>
-    <t>0876662526</t>
-  </si>
-  <si>
-    <t>Karel Bremmer</t>
-  </si>
-  <si>
-    <t>0231153489</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>0797979797</t>
-  </si>
-  <si>
-    <t>Amanda Bynes</t>
-  </si>
-  <si>
-    <t>0698847563</t>
-  </si>
-  <si>
-    <t>Bonnie Clyde</t>
-  </si>
-  <si>
-    <t>0283744444</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>0346969874</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Johnny Depp</t>
-  </si>
-  <si>
-    <t>0782828252</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>0314569832</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>0786665254</t>
-  </si>
-  <si>
-    <t>Dudley Dursley</t>
-  </si>
-  <si>
-    <t>0786552662</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>1</t>
   </si>
   <si>
     <t>Harison Ford</t>
@@ -189,19 +102,7 @@
     <t>0364498572</t>
   </si>
   <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>0786665525</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>0782725541</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>2</t>
   </si>
   <si>
     <t>Afro Jack</t>
@@ -210,43 +111,7 @@
     <t>0324487569</t>
   </si>
   <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>0989898987</t>
-  </si>
-  <si>
-    <t>Kendral Jennar</t>
-  </si>
-  <si>
-    <t>0324458762</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Billy Joel</t>
-  </si>
-  <si>
-    <t>0879971172</t>
-  </si>
-  <si>
-    <t>Indianah Jones</t>
-  </si>
-  <si>
-    <t>0987878765</t>
-  </si>
-  <si>
-    <t>James Earl Jones</t>
-  </si>
-  <si>
-    <t>0642253486</t>
-  </si>
-  <si>
-    <t>King Kong</t>
-  </si>
-  <si>
-    <t>0876543767</t>
+    <t>6</t>
   </si>
   <si>
     <t>Adam Lavine</t>
@@ -255,40 +120,7 @@
     <t>0364478513</t>
   </si>
   <si>
-    <t>Dane Left</t>
-  </si>
-  <si>
-    <t>Neville Longbottom</t>
-  </si>
-  <si>
-    <t>0897726552</t>
-  </si>
-  <si>
-    <t>Luna Lovegood</t>
-  </si>
-  <si>
-    <t>0897776625</t>
-  </si>
-  <si>
-    <t>Draco Malfoy</t>
-  </si>
-  <si>
-    <t>0785524422</t>
-  </si>
-  <si>
-    <t>Dennis Menace</t>
-  </si>
-  <si>
-    <t>0987656543</t>
-  </si>
-  <si>
-    <t>Liam Neeson</t>
-  </si>
-  <si>
-    <t>0283746574</t>
-  </si>
-  <si>
-    <t>Florence NightingGale</t>
+    <t>3</t>
   </si>
   <si>
     <t>Astrix Oblix</t>
@@ -297,91 +129,10 @@
     <t>0876337283</t>
   </si>
   <si>
-    <t>Jimmy Olsen</t>
-  </si>
-  <si>
-    <t>0897776552</t>
-  </si>
-  <si>
     <t>Rita Ora</t>
   </si>
   <si>
     <t>0356614528</t>
-  </si>
-  <si>
-    <t>Peter Petagru</t>
-  </si>
-  <si>
-    <t>0786665252</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>0783547463</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>0786543876</t>
-  </si>
-  <si>
-    <t>James Potter</t>
-  </si>
-  <si>
-    <t>0987776542</t>
-  </si>
-  <si>
-    <t>Lone Ranger</t>
-  </si>
-  <si>
-    <t>0832534637</t>
-  </si>
-  <si>
-    <t>Rowena Ravenclaw</t>
-  </si>
-  <si>
-    <t>0781828292</t>
-  </si>
-  <si>
-    <t>Tom Marvolo (AKA Lord Voldormort) Riddle</t>
-  </si>
-  <si>
-    <t>0782625252</t>
-  </si>
-  <si>
-    <t>Seth Rogen</t>
-  </si>
-  <si>
-    <t>White Shadow</t>
-  </si>
-  <si>
-    <t>0796857463</t>
-  </si>
-  <si>
-    <t>Charlie Sheen</t>
-  </si>
-  <si>
-    <t>0647759832</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>0876666552</t>
-  </si>
-  <si>
-    <t>Chloe Sullivan</t>
-  </si>
-  <si>
-    <t>0786665555</t>
-  </si>
-  <si>
-    <t>Ellen TheGenarous</t>
-  </si>
-  <si>
-    <t>0647758942</t>
   </si>
   <si>
     <t>Donald Trump</t>
@@ -397,54 +148,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>Albert Van Dame</t>
-  </si>
-  <si>
-    <t>0316647582</t>
-  </si>
-  <si>
-    <t>Alan Walker</t>
-  </si>
-  <si>
-    <t>0315524652</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>0782821188</t>
-  </si>
-  <si>
-    <t>Ginny Weasly</t>
-  </si>
-  <si>
-    <t>0782525161</t>
-  </si>
-  <si>
-    <t>Ronald Weasly</t>
-  </si>
-  <si>
-    <t>0876655252</t>
-  </si>
-  <si>
-    <t>Sydney White</t>
-  </si>
-  <si>
-    <t>0897654433</t>
-  </si>
-  <si>
-    <t>Rene Woodford</t>
-  </si>
-  <si>
-    <t>0876665555</t>
-  </si>
-  <si>
-    <t>Danny Zuko</t>
-  </si>
-  <si>
-    <t>0219876655</t>
   </si>
 </sst>
 </file>
@@ -4777,7 +4480,7 @@
       <top>
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -4791,7 +4494,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -4833,12 +4536,82 @@
       <top>
         <color indexed="8"/>
       </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -4855,13 +4628,27 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top>
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -4893,95 +4680,11 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1381">
+  <cellXfs count="871">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5037,26 +4740,6 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5121,56 +4804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5225,26 +4858,6 @@
     <xf numFmtId="0" fontId="90" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5299,56 +4912,6 @@
     <xf numFmtId="0" fontId="120" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5457,16 +5020,16 @@
     <xf numFmtId="0" fontId="180" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5531,16 +5094,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5595,16 +5148,6 @@
     <xf numFmtId="0" fontId="240" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5723,56 +5266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5827,16 +5320,6 @@
     <xf numFmtId="0" fontId="330" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5901,36 +5384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5985,26 +5438,6 @@
     <xf numFmtId="0" fontId="390" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6059,26 +5492,6 @@
     <xf numFmtId="0" fontId="420" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6133,6 +5546,16 @@
     <xf numFmtId="0" fontId="450" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -6143,26 +5566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6217,46 +5620,6 @@
     <xf numFmtId="0" fontId="480" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6365,46 +5728,6 @@
     <xf numFmtId="0" fontId="540" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6459,46 +5782,6 @@
     <xf numFmtId="0" fontId="570" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6563,16 +5846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6691,16 +5964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6755,66 +6018,6 @@
     <xf numFmtId="0" fontId="690" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6977,16 +6180,6 @@
     <xf numFmtId="0" fontId="780" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -6999,7 +6192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -7008,7 +6201,7 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="72.578125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7105,70 +6298,6 @@
       </c>
       <c r="J3" t="s" s="30">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="31">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s" s="32">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="33">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="35">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="36">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="37">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="38">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="39">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="42">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="43">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="44">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="47">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="50">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7181,323 +6310,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="15.9375" customWidth="true"/>
-    <col min="2" max="2" width="10.3125" customWidth="true"/>
-    <col min="3" max="3" width="4.6875" customWidth="true"/>
-    <col min="4" max="4" width="4.6875" customWidth="true"/>
-    <col min="5" max="5" width="4.6875" customWidth="true"/>
-    <col min="6" max="6" width="4.6875" customWidth="true"/>
-    <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
-    <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="69.765625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="462">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="463">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="464">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="465">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="466">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="467">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="468">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s" s="469">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="471">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="472">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="473">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="474">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="475">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="476">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="477">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="478">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="479">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="481">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="482">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="483">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="484">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s" s="485">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s" s="486">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="487">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s" s="488">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s" s="489">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s" s="490">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="491">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s" s="492">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s" s="493">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="494">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="495">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="496">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="497">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="498">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="499">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="500">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="501">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s" s="502">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s" s="503">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="504">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="505">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="506">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="507">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="509">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="511">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s" s="512">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s" s="513">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s" s="514">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="515">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="516">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="517">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="518">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="519">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="520">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="521">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s" s="522">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s" s="523">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s" s="524">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="525">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="526">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="527">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="528">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="529">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="531">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s" s="532">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s" s="533">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="534">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="535">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="536">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="537">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="538">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="540">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="541">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s" s="542">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s" s="543">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s" s="544">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="545">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="546">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="547">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="548">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="549">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="550">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7518,131 +6330,256 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="551">
+      <c r="A1" t="s" s="301">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="552">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="553">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="554">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="555">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="556">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="557">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="558">
+      <c r="B1" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="303">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="304">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="305">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="306">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="308">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="559">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="560">
+      <c r="I1" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="310">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="561">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="562">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="563">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="564">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="565">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="566">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="567">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="568">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="569">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="570">
+      <c r="A2" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="313">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="314">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="315">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="316">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="317">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="318">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="319">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="320">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="571">
+      <c r="A3" t="s" s="321">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="572">
+      <c r="B3" t="s" s="322">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="573">
+      <c r="C3" t="s" s="323">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="574">
+      <c r="D3" t="s" s="324">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="575">
+      <c r="E3" t="s" s="325">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="576">
+      <c r="F3" t="s" s="326">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="577">
+      <c r="G3" t="s" s="327">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="578">
+      <c r="H3" t="s" s="328">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="579">
+      <c r="I3" t="s" s="329">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="580">
+      <c r="J3" t="s" s="330">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="581">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s" s="582">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s" s="583">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="585">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="586">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="587">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="588">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="589">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="590">
-        <v>1</v>
+      <c r="A4" t="s" s="331">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="332">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="334">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="335">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="338">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="339">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="340">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="2" max="2" width="10.3125" customWidth="true"/>
+    <col min="3" max="3" width="4.6875" customWidth="true"/>
+    <col min="4" max="4" width="4.6875" customWidth="true"/>
+    <col min="5" max="5" width="4.6875" customWidth="true"/>
+    <col min="6" max="6" width="4.6875" customWidth="true"/>
+    <col min="7" max="7" width="4.6875" customWidth="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="9" max="9" width="4.6875" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="341">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="342">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="343">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="344">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="348">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="351">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="352">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="353">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="354">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="355">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="358">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="359">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="361">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="362">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="363">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="364">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="365">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="366">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="367">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s" s="368">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s" s="369">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s" s="370">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7662,7 +6599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.8125" customWidth="true"/>
+    <col min="1" max="1" width="11.25" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -7671,230 +6608,134 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="67.890625" customWidth="true"/>
+    <col min="10" max="10" width="74.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="591">
+      <c r="A1" t="s" s="371">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="592">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="593">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="594">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="595">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="596">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="597">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="598">
+      <c r="B1" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="378">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="599">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="600">
+      <c r="I1" t="s" s="379">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="380">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="601">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="602">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="603">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="604">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="605">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="606">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="607">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="608">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="609">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="610">
+      <c r="A2" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="382">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="383">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="384">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="385">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="386">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="387">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="388">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="389">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="390">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="611">
+      <c r="A3" t="s" s="391">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="612">
+      <c r="B3" t="s" s="392">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="613">
+      <c r="C3" t="s" s="393">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="614">
+      <c r="D3" t="s" s="394">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="615">
+      <c r="E3" t="s" s="395">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="616">
+      <c r="F3" t="s" s="396">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="617">
+      <c r="G3" t="s" s="397">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="618">
+      <c r="H3" t="s" s="398">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="619">
+      <c r="I3" t="s" s="399">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="620">
+      <c r="J3" t="s" s="400">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="621">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s" s="622">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s" s="623">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="624">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="625">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="626">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="627">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="628">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="629">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="630">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="631">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s" s="632">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="633">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="634">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="635">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="636">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="637">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="638">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="639">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="640">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="641">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s" s="642">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s" s="643">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="644">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="645">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="646">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="647">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="648">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="649">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="650">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="651">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s" s="652">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s" s="653">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="654">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="655">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="656">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="657">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="658">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="659">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="660">
+      <c r="A4" t="s" s="401">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="402">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="403">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="404">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="405">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="406">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="407">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="410">
         <v>1</v>
       </c>
     </row>
@@ -7915,7 +6756,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -7924,167 +6765,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="72.578125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="661">
+      <c r="A1" t="s" s="411">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="662">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="663">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="664">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="665">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="666">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="667">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="668">
+      <c r="B1" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="413">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="414">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="415">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="416">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="418">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="669">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="670">
+      <c r="I1" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="420">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="671">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="672">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="673">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="674">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="675">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="676">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="677">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="678">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="679">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="680">
+      <c r="A2" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="423">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="426">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="427">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="428">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="429">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="430">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="681">
+      <c r="A3" t="s" s="431">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="682">
+      <c r="B3" t="s" s="432">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="683">
+      <c r="C3" t="s" s="433">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="684">
+      <c r="D3" t="s" s="434">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="685">
+      <c r="E3" t="s" s="435">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="686">
+      <c r="F3" t="s" s="436">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="687">
+      <c r="G3" t="s" s="437">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="688">
+      <c r="H3" t="s" s="438">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="689">
+      <c r="I3" t="s" s="439">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="690">
+      <c r="J3" t="s" s="440">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="691">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s" s="692">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s" s="693">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="697">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="698">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="699">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="700">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="701">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s" s="702">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s" s="703">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="704">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="705">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="706">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="707">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="708">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="709">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="710">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8104,7 +6881,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8113,167 +6890,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="65.078125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="711">
+      <c r="A1" t="s" s="441">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="712">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="713">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="714">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="715">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="716">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="717">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="718">
+      <c r="B1" t="s" s="442">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="443">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="446">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="447">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="448">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="719">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="720">
+      <c r="I1" t="s" s="449">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="450">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="721">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="722">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="723">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="724">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="725">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="726">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="727">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="728">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="729">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="730">
+      <c r="A2" t="s" s="451">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="453">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="456">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="457">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="458">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="459">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="460">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="731">
+      <c r="A3" t="s" s="461">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="732">
+      <c r="B3" t="s" s="462">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="733">
+      <c r="C3" t="s" s="463">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="734">
+      <c r="D3" t="s" s="464">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="735">
+      <c r="E3" t="s" s="465">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="736">
+      <c r="F3" t="s" s="466">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="737">
+      <c r="G3" t="s" s="467">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="738">
+      <c r="H3" t="s" s="468">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="739">
+      <c r="I3" t="s" s="469">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="740">
+      <c r="J3" t="s" s="470">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="741">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s" s="742">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s" s="743">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="744">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="745">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="746">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="747">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="748">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="749">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="750">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="751">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s" s="752">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="753">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="754">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="755">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="756">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="757">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="758">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="759">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="760">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8306,194 +7019,162 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="761">
+      <c r="A1" t="s" s="471">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="762">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="763">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="764">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="765">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="766">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="767">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="768">
+      <c r="B1" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="475">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="476">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="477">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="478">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="769">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="770">
+      <c r="I1" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="480">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="771">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="772">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="773">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="774">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="775">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="776">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="777">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="778">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="779">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="780">
+      <c r="A2" t="s" s="481">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="482">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="483">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="485">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="486">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="487">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="488">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="489">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="490">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="781">
+      <c r="A3" t="s" s="491">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="782">
+      <c r="B3" t="s" s="492">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="783">
+      <c r="C3" t="s" s="493">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="784">
+      <c r="D3" t="s" s="494">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="785">
+      <c r="E3" t="s" s="495">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="786">
+      <c r="F3" t="s" s="496">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="787">
+      <c r="G3" t="s" s="497">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="788">
+      <c r="H3" t="s" s="498">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="789">
+      <c r="I3" t="s" s="499">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="790">
+      <c r="J3" t="s" s="500">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="791">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s" s="792">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s" s="793">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="794">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="795">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="796">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="797">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="798">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="799">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="800">
+      <c r="A4" t="s" s="501">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="502">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="503">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="504">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="505">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="506">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="508">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="510">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="801">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="802">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s" s="803">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="804">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="805">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="806">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="807">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="808">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="809">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="810">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="811">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s" s="812">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s" s="813">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s" s="814">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="815">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="816">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="817">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="818">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="819">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="820">
+      <c r="A5" t="s" s="511">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="512">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="514">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="515">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="516">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="517">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="518">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="519">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="520">
         <v>1</v>
       </c>
     </row>
@@ -8514,7 +7195,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8523,231 +7204,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="72.578125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="821">
+      <c r="A1" t="s" s="521">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="822">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="823">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="824">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="825">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="826">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="827">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="828">
+      <c r="B1" t="s" s="522">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="523">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="524">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="525">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="526">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="527">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="528">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="829">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="830">
+      <c r="I1" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="530">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="831">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="832">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="833">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="834">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="835">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="836">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="837">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="838">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="839">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="840">
+      <c r="A2" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="535">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="536">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="537">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="538">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="540">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="841">
+      <c r="A3" t="s" s="541">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="842">
+      <c r="B3" t="s" s="542">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="843">
+      <c r="C3" t="s" s="543">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="844">
+      <c r="D3" t="s" s="544">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="845">
+      <c r="E3" t="s" s="545">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="846">
+      <c r="F3" t="s" s="546">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="847">
+      <c r="G3" t="s" s="547">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="848">
+      <c r="H3" t="s" s="548">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="849">
+      <c r="I3" t="s" s="549">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="850">
+      <c r="J3" t="s" s="550">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="851">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s" s="852">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s" s="853">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="854">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="855">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="856">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="857">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="858">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="859">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="860">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="861">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s" s="862">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s" s="863">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="864">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="865">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="866">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="867">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="868">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="869">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="870">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="871">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s" s="872">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s" s="873">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s" s="874">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="875">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="876">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="877">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="878">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="879">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="880">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="881">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s" s="882">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="883">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s" s="884">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="885">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="886">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="887">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="888">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="889">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="890">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8780,98 +7333,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="891">
+      <c r="A1" t="s" s="551">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="892">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="893">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="894">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="895">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="896">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="897">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="898">
+      <c r="B1" t="s" s="552">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="553">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="554">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="555">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="556">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="557">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="558">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="899">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="900">
+      <c r="I1" t="s" s="559">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="560">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="901">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="902">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="903">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="904">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="905">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="906">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="907">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="908">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="909">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="910">
+      <c r="A2" t="s" s="561">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="562">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="566">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="567">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="568">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="569">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="570">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="911">
+      <c r="A3" t="s" s="571">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="912">
+      <c r="B3" t="s" s="572">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="913">
+      <c r="C3" t="s" s="573">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="914">
+      <c r="D3" t="s" s="574">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="915">
+      <c r="E3" t="s" s="575">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="916">
+      <c r="F3" t="s" s="576">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="917">
+      <c r="G3" t="s" s="577">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="918">
+      <c r="H3" t="s" s="578">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="919">
+      <c r="I3" t="s" s="579">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="920">
+      <c r="J3" t="s" s="580">
         <v>12</v>
       </c>
     </row>
@@ -8892,7 +7445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.4375" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8901,231 +7454,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="47.265625" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="921">
+      <c r="A1" t="s" s="581">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="922">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="923">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="924">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="925">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="926">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="927">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="928">
+      <c r="B1" t="s" s="582">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="586">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="587">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="588">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="929">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="930">
+      <c r="I1" t="s" s="589">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="590">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="931">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="932">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="933">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="934">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="935">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="936">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="937">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="938">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="939">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="940">
+      <c r="A2" t="s" s="591">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="592">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="593">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="594">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="595">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="596">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="597">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="598">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="599">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="600">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="941">
+      <c r="A3" t="s" s="601">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="942">
+      <c r="B3" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="943">
+      <c r="C3" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="944">
+      <c r="D3" t="s" s="604">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="945">
+      <c r="E3" t="s" s="605">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="946">
+      <c r="F3" t="s" s="606">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="947">
+      <c r="G3" t="s" s="607">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="948">
+      <c r="H3" t="s" s="608">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="949">
+      <c r="I3" t="s" s="609">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="950">
+      <c r="J3" t="s" s="610">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="951">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s" s="952">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s" s="953">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="954">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="955">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="956">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="957">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="958">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="959">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="960">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="961">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s" s="962">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s" s="963">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="964">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="965">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="966">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="967">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="968">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="969">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="970">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="971">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s" s="972">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s" s="973">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="974">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="975">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="976">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="977">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="978">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="979">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="980">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="981">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s" s="982">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="983">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="984">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="985">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="986">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="987">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="988">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="989">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="990">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9145,7 +7570,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0625" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -9154,231 +7579,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="71.640625" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="991">
+      <c r="A1" t="s" s="611">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="992">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="993">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="994">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="995">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="996">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="997">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="998">
+      <c r="B1" t="s" s="612">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="615">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="617">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="618">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="999">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1000">
+      <c r="I1" t="s" s="619">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="620">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1001">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1002">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1003">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1004">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1005">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1006">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1007">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1008">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1009">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1010">
+      <c r="A2" t="s" s="621">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="622">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="623">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="624">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="625">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="626">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="627">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="628">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="629">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="630">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1011">
+      <c r="A3" t="s" s="631">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1012">
+      <c r="B3" t="s" s="632">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1013">
+      <c r="C3" t="s" s="633">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1014">
+      <c r="D3" t="s" s="634">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1015">
+      <c r="E3" t="s" s="635">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1016">
+      <c r="F3" t="s" s="636">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1017">
+      <c r="G3" t="s" s="637">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1018">
+      <c r="H3" t="s" s="638">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1019">
+      <c r="I3" t="s" s="639">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1020">
+      <c r="J3" t="s" s="640">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1021">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s" s="1022">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s" s="1023">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="1024">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1025">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1026">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1027">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1028">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1029">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1030">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1031">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s" s="1032">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s" s="1033">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="1034">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1035">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1036">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1037">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1038">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1039">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1040">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1041">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s" s="1042">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s" s="1043">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="1044">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="1045">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="1046">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="1047">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="1048">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="1049">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="1050">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1051">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s" s="1052">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s" s="1053">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="1054">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="1055">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="1056">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="1057">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="1058">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="1059">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="1060">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +7695,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.8125" customWidth="true"/>
+    <col min="1" max="1" width="15.9375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -9407,294 +7704,134 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="67.890625" customWidth="true"/>
+    <col min="10" max="10" width="69.765625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="51">
+      <c r="A1" t="s" s="31">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="52">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="54">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="55">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="56">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="58">
+      <c r="B1" t="s" s="32">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="33">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="34">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="35">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="36">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="37">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="38">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="60">
+      <c r="I1" t="s" s="39">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="63">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="64">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="70">
+      <c r="A2" t="s" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="44">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="71">
+      <c r="A3" t="s" s="51">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="72">
+      <c r="B3" t="s" s="52">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="73">
+      <c r="C3" t="s" s="53">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="74">
+      <c r="D3" t="s" s="54">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="75">
+      <c r="E3" t="s" s="55">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="76">
+      <c r="F3" t="s" s="56">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="77">
+      <c r="G3" t="s" s="57">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="78">
+      <c r="H3" t="s" s="58">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="79">
+      <c r="I3" t="s" s="59">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="80">
+      <c r="J3" t="s" s="60">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="81">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="82">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="83">
+      <c r="A4" t="s" s="61">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="62">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="63">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="91">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="92">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="93">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="94">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="95">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="96">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="97">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="99">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="101">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="102">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="103">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="107">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="109">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="111">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="112">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="113">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="119">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="121">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="122">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="123">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="125">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="128">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="131">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="132">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="133">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="135">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="137">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="140">
+      <c r="D4" t="s" s="64">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="65">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="70">
         <v>1</v>
       </c>
     </row>
@@ -9715,7 +7852,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="true"/>
+    <col min="1" max="1" width="12.1875" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -9724,166 +7861,134 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="68.828125" customWidth="true"/>
+    <col min="10" max="10" width="73.515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1061">
+      <c r="A1" t="s" s="641">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1062">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1063">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1064">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1065">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1066">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1067">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1068">
+      <c r="B1" t="s" s="642">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="645">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="646">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="647">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="648">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1069">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1070">
+      <c r="I1" t="s" s="649">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="650">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1071">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1072">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1073">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1074">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1075">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1076">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1077">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1078">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1079">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1080">
+      <c r="A2" t="s" s="651">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="652">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="653">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="654">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="657">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="658">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="659">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="660">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1081">
+      <c r="A3" t="s" s="661">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1082">
+      <c r="B3" t="s" s="662">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1083">
+      <c r="C3" t="s" s="663">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1084">
+      <c r="D3" t="s" s="664">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1085">
+      <c r="E3" t="s" s="665">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1086">
+      <c r="F3" t="s" s="666">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1087">
+      <c r="G3" t="s" s="667">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1088">
+      <c r="H3" t="s" s="668">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1089">
+      <c r="I3" t="s" s="669">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1090">
+      <c r="J3" t="s" s="670">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1091">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s" s="1092">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s" s="1093">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="1094">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1095">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1096">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1097">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1098">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1099">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1101">
-        <v>115</v>
-      </c>
-      <c r="B5" t="s" s="1102">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s" s="1103">
+      <c r="A4" t="s" s="671">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="672">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s" s="673">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="1104">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1105">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1106">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1107">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1108">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1109">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1110">
+      <c r="D4" t="s" s="674">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="675">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="676">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="677">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="678">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="679">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="680">
         <v>1</v>
       </c>
     </row>
@@ -9917,98 +8022,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1111">
+      <c r="A1" t="s" s="681">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1112">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1113">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1114">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1115">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1116">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1117">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1118">
+      <c r="B1" t="s" s="682">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="683">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="684">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="685">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="686">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="687">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="688">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1119">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1120">
+      <c r="I1" t="s" s="689">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="690">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1121">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1122">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1123">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1124">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1125">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1126">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1127">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1128">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1129">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1130">
+      <c r="A2" t="s" s="691">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="692">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="693">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="694">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="699">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="700">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1131">
+      <c r="A3" t="s" s="701">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1132">
+      <c r="B3" t="s" s="702">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1133">
+      <c r="C3" t="s" s="703">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1134">
+      <c r="D3" t="s" s="704">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1135">
+      <c r="E3" t="s" s="705">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1136">
+      <c r="F3" t="s" s="706">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1137">
+      <c r="G3" t="s" s="707">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1138">
+      <c r="H3" t="s" s="708">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1139">
+      <c r="I3" t="s" s="709">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1140">
+      <c r="J3" t="s" s="710">
         <v>12</v>
       </c>
     </row>
@@ -10029,7 +8134,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.0" customWidth="true"/>
+    <col min="1" max="1" width="11.25" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -10038,166 +8143,134 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="70.703125" customWidth="true"/>
+    <col min="10" max="10" width="74.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1141">
+      <c r="A1" t="s" s="711">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1142">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1143">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1144">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1145">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1146">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1147">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1148">
+      <c r="B1" t="s" s="712">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="713">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="714">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="718">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1149">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1150">
+      <c r="I1" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="720">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1151">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1152">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1153">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1154">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1155">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1156">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1157">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1158">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1159">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1160">
+      <c r="A2" t="s" s="721">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="722">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="723">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="724">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="728">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="730">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1161">
+      <c r="A3" t="s" s="731">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1162">
+      <c r="B3" t="s" s="732">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1163">
+      <c r="C3" t="s" s="733">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1164">
+      <c r="D3" t="s" s="734">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1165">
+      <c r="E3" t="s" s="735">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1166">
+      <c r="F3" t="s" s="736">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1167">
+      <c r="G3" t="s" s="737">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1168">
+      <c r="H3" t="s" s="738">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1169">
+      <c r="I3" t="s" s="739">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1170">
+      <c r="J3" t="s" s="740">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1171">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s" s="1172">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s" s="1173">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s" s="1174">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1175">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1176">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1177">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1178">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1179">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1181">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s" s="1182">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s" s="1183">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s" s="1184">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1185">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1186">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1187">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1188">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1189">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1190">
+      <c r="A4" t="s" s="741">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="742">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s" s="743">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="744">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="745">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="746">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="747">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="748">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="749">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="750">
         <v>1</v>
       </c>
     </row>
@@ -10218,7 +8291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -10227,295 +8300,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="68.828125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1191">
+      <c r="A1" t="s" s="751">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1192">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1193">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1194">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1195">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1196">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1197">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1198">
+      <c r="B1" t="s" s="752">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="753">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="754">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="755">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="756">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="757">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="758">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1199">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1200">
+      <c r="I1" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="760">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1201">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1202">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1203">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1204">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1205">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1206">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1207">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1208">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1209">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1210">
+      <c r="A2" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="762">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="763">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="764">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="765">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="766">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="767">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="768">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="770">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1211">
+      <c r="A3" t="s" s="771">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1212">
+      <c r="B3" t="s" s="772">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1213">
+      <c r="C3" t="s" s="773">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1214">
+      <c r="D3" t="s" s="774">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1215">
+      <c r="E3" t="s" s="775">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1216">
+      <c r="F3" t="s" s="776">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1217">
+      <c r="G3" t="s" s="777">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1218">
+      <c r="H3" t="s" s="778">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1219">
+      <c r="I3" t="s" s="779">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1220">
+      <c r="J3" t="s" s="780">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1221">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s" s="1222">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s" s="1223">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="1224">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1225">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1226">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1227">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1228">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1229">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1231">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s" s="1232">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s" s="1233">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s" s="1234">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1235">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1236">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1237">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1238">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1239">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1241">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s" s="1242">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s" s="1243">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="1244">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="1245">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="1246">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="1247">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="1248">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="1249">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="1250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1251">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s" s="1252">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s" s="1253">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s" s="1254">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="1255">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="1256">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="1257">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="1258">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="1259">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="1260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="1261">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s" s="1262">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s" s="1263">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s" s="1264">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="1265">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="1266">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="1267">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="1268">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="1269">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="1270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1271">
-        <v>132</v>
-      </c>
-      <c r="B9" t="s" s="1272">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s" s="1273">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s" s="1274">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="1275">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="1276">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="1277">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="1278">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="1279">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="1280">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10548,98 +8429,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1281">
+      <c r="A1" t="s" s="781">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1282">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1283">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1284">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1285">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1286">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1287">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1288">
+      <c r="B1" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="783">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="784">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="785">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="786">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="787">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="788">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1289">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1290">
+      <c r="I1" t="s" s="789">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="790">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1291">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1292">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1293">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1294">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1295">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1296">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1297">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1298">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1299">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1300">
+      <c r="A2" t="s" s="791">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="792">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="793">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="794">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="795">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="796">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="797">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="798">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="799">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="800">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1301">
+      <c r="A3" t="s" s="801">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1302">
+      <c r="B3" t="s" s="802">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1303">
+      <c r="C3" t="s" s="803">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1304">
+      <c r="D3" t="s" s="804">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1305">
+      <c r="E3" t="s" s="805">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1306">
+      <c r="F3" t="s" s="806">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1307">
+      <c r="G3" t="s" s="807">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1308">
+      <c r="H3" t="s" s="808">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1309">
+      <c r="I3" t="s" s="809">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1310">
+      <c r="J3" t="s" s="810">
         <v>12</v>
       </c>
     </row>
@@ -10673,98 +8554,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1311">
+      <c r="A1" t="s" s="811">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1312">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1313">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1314">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1315">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1316">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1317">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1318">
+      <c r="B1" t="s" s="812">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="813">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="814">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="815">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="816">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="817">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="818">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1319">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1320">
+      <c r="I1" t="s" s="819">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="820">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1321">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1322">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1323">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1324">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1325">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1326">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1327">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1328">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1329">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1330">
+      <c r="A2" t="s" s="821">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="822">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="823">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="824">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="825">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="826">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="827">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="828">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="829">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="830">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1331">
+      <c r="A3" t="s" s="831">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1332">
+      <c r="B3" t="s" s="832">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1333">
+      <c r="C3" t="s" s="833">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1334">
+      <c r="D3" t="s" s="834">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1335">
+      <c r="E3" t="s" s="835">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1336">
+      <c r="F3" t="s" s="836">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1337">
+      <c r="G3" t="s" s="837">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1338">
+      <c r="H3" t="s" s="838">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1339">
+      <c r="I3" t="s" s="839">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1340">
+      <c r="J3" t="s" s="840">
         <v>12</v>
       </c>
     </row>
@@ -10785,7 +8666,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.3125" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -10794,135 +8675,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="75.390625" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1341">
+      <c r="A1" t="s" s="841">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1342">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1343">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1344">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1345">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1346">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1347">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1348">
+      <c r="B1" t="s" s="842">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="843">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="844">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="845">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="846">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="847">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="848">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1349">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1350">
+      <c r="I1" t="s" s="849">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="850">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1351">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1352">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1353">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1354">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1355">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1356">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1357">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1358">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1359">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1360">
+      <c r="A2" t="s" s="851">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="852">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="853">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="854">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="855">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="856">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="857">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="858">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="859">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="860">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1361">
+      <c r="A3" t="s" s="861">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1362">
+      <c r="B3" t="s" s="862">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1363">
+      <c r="C3" t="s" s="863">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1364">
+      <c r="D3" t="s" s="864">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1365">
+      <c r="E3" t="s" s="865">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1366">
+      <c r="F3" t="s" s="866">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1367">
+      <c r="G3" t="s" s="867">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1368">
+      <c r="H3" t="s" s="868">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1369">
+      <c r="I3" t="s" s="869">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1370">
+      <c r="J3" t="s" s="870">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1371">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s" s="1372">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s" s="1373">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="1374">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1375">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1376">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1377">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1378">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1379">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1380">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10942,7 +8791,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -10951,167 +8800,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="141">
+      <c r="A1" t="s" s="71">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="142">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="144">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="145">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="148">
+      <c r="B1" t="s" s="72">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="73">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="76">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="78">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="149">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="150">
+      <c r="I1" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="152">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="153">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="159">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="160">
+      <c r="A2" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="161">
+      <c r="A3" t="s" s="91">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="162">
+      <c r="B3" t="s" s="92">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="163">
+      <c r="C3" t="s" s="93">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="164">
+      <c r="D3" t="s" s="94">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="165">
+      <c r="E3" t="s" s="95">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="166">
+      <c r="F3" t="s" s="96">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="167">
+      <c r="G3" t="s" s="97">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="168">
+      <c r="H3" t="s" s="98">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="169">
+      <c r="I3" t="s" s="99">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="170">
+      <c r="J3" t="s" s="100">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="171">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="172">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="173">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="179">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="181">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="182">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="183">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s" s="184">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="185">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="188">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="189">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="190">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11131,7 +8916,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -11140,263 +8925,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="68.828125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="191">
+      <c r="A1" t="s" s="101">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="192">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="193">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="195">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="196">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="197">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="198">
+      <c r="B1" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="103">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="107">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="108">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="199">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="200">
+      <c r="I1" t="s" s="109">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="110">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="201">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="204">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="207">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="208">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="210">
+      <c r="A2" t="s" s="111">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="113">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="117">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="119">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="211">
+      <c r="A3" t="s" s="121">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="212">
+      <c r="B3" t="s" s="122">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="213">
+      <c r="C3" t="s" s="123">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="214">
+      <c r="D3" t="s" s="124">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="215">
+      <c r="E3" t="s" s="125">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="216">
+      <c r="F3" t="s" s="126">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="217">
+      <c r="G3" t="s" s="127">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="218">
+      <c r="H3" t="s" s="128">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="219">
+      <c r="I3" t="s" s="129">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="220">
+      <c r="J3" t="s" s="130">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="221">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s" s="222">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s" s="223">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="224">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="225">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="226">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="227">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="228">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="229">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="231">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s" s="232">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="233">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="235">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="236">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="237">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="239">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="241">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="242">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s" s="243">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s" s="244">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="245">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="251">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s" s="252">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s" s="253">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="254">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="255">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="256">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="257">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="258">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="259">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="261">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s" s="262">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s" s="263">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s" s="264">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="265">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="266">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="267">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="268">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="269">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="270">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11429,98 +9054,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="271">
+      <c r="A1" t="s" s="131">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="272">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="273">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="274">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="275">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="276">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="277">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="278">
+      <c r="B1" t="s" s="132">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="133">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="134">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="135">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="136">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="137">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="138">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="279">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="280">
+      <c r="I1" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="281">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="282">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="283">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="284">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="285">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="286">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="287">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="288">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="289">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="290">
+      <c r="A2" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="143">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="144">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="145">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="291">
+      <c r="A3" t="s" s="151">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="292">
+      <c r="B3" t="s" s="152">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="293">
+      <c r="C3" t="s" s="153">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="294">
+      <c r="D3" t="s" s="154">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="295">
+      <c r="E3" t="s" s="155">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="296">
+      <c r="F3" t="s" s="156">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="297">
+      <c r="G3" t="s" s="157">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="298">
+      <c r="H3" t="s" s="158">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="299">
+      <c r="I3" t="s" s="159">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="300">
+      <c r="J3" t="s" s="160">
         <v>12</v>
       </c>
     </row>
@@ -11554,130 +9179,130 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="301">
+      <c r="A1" t="s" s="161">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="304">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="305">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="306">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="307">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="308">
+      <c r="B1" t="s" s="162">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="163">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="164">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="168">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="310">
+      <c r="I1" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="170">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="311">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="312">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="313">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="314">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="315">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="316">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="317">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="318">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="319">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="320">
+      <c r="A2" t="s" s="171">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="172">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="173">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="174">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="179">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="180">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="321">
+      <c r="A3" t="s" s="181">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="322">
+      <c r="B3" t="s" s="182">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="323">
+      <c r="C3" t="s" s="183">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="324">
+      <c r="D3" t="s" s="184">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="325">
+      <c r="E3" t="s" s="185">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="326">
+      <c r="F3" t="s" s="186">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="327">
+      <c r="G3" t="s" s="187">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="328">
+      <c r="H3" t="s" s="188">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="329">
+      <c r="I3" t="s" s="189">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="330">
+      <c r="J3" t="s" s="190">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="331">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s" s="332">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s" s="333">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s" s="334">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="335">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="338">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="339">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="340">
+      <c r="A4" t="s" s="191">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="192">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="193">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="195">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="196">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="197">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="199">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="200">
         <v>1</v>
       </c>
     </row>
@@ -11698,7 +9323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.9375" customWidth="true"/>
+    <col min="1" max="1" width="12.1875" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -11707,166 +9332,134 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="69.765625" customWidth="true"/>
+    <col min="10" max="10" width="73.515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="341">
+      <c r="A1" t="s" s="201">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="342">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="343">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="344">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="345">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="346">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="347">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="348">
+      <c r="B1" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="204">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="206">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="207">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="208">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="349">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="350">
+      <c r="I1" t="s" s="209">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="210">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="351">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="352">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="353">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="354">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="355">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="356">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="357">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="358">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="359">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="360">
+      <c r="A2" t="s" s="211">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="212">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="213">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="214">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="215">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="216">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="217">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="219">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="220">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="361">
+      <c r="A3" t="s" s="221">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="362">
+      <c r="B3" t="s" s="222">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="363">
+      <c r="C3" t="s" s="223">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="364">
+      <c r="D3" t="s" s="224">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="365">
+      <c r="E3" t="s" s="225">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="366">
+      <c r="F3" t="s" s="226">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="367">
+      <c r="G3" t="s" s="227">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="368">
+      <c r="H3" t="s" s="228">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="369">
+      <c r="I3" t="s" s="229">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="370">
+      <c r="J3" t="s" s="230">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="371">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s" s="372">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s" s="373">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="374">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="375">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="376">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="377">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="378">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="379">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="381">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="382">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s" s="383">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="384">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="385">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="386">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="387">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="388">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="389">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="390">
+      <c r="A4" t="s" s="231">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="232">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="233">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="234">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="235">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="236">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="239">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="240">
         <v>1</v>
       </c>
     </row>
@@ -11887,7 +9480,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.3125" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -11896,135 +9489,103 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="75.390625" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="391">
+      <c r="A1" t="s" s="241">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="392">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="393">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="394">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="395">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="396">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="397">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="398">
+      <c r="B1" t="s" s="242">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="243">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="244">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="245">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="248">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="399">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="400">
+      <c r="I1" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="250">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="401">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="402">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="403">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="404">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="405">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="406">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="407">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="408">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="409">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="410">
+      <c r="A2" t="s" s="251">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="252">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="253">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="254">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="255">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="260">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="411">
+      <c r="A3" t="s" s="261">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="412">
+      <c r="B3" t="s" s="262">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="413">
+      <c r="C3" t="s" s="263">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="414">
+      <c r="D3" t="s" s="264">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="415">
+      <c r="E3" t="s" s="265">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="416">
+      <c r="F3" t="s" s="266">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="417">
+      <c r="G3" t="s" s="267">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="418">
+      <c r="H3" t="s" s="268">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="419">
+      <c r="I3" t="s" s="269">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="420">
+      <c r="J3" t="s" s="270">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="421">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="422">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s" s="423">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s" s="424">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="425">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="426">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="427">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="428">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="429">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="430">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12057,98 +9618,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="431">
+      <c r="A1" t="s" s="271">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="432">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="433">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="434">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="435">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="436">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="437">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="438">
+      <c r="B1" t="s" s="272">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="273">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="274">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="275">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="276">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="277">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="278">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="439">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="440">
+      <c r="I1" t="s" s="279">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="280">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="441">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="442">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="443">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="444">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="445">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="446">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="447">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="448">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="449">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="450">
+      <c r="A2" t="s" s="281">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="282">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="283">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="284">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="285">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="286">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="287">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="288">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="289">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="290">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="451">
+      <c r="A3" t="s" s="291">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="452">
+      <c r="B3" t="s" s="292">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="453">
+      <c r="C3" t="s" s="293">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="454">
+      <c r="D3" t="s" s="294">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="455">
+      <c r="E3" t="s" s="295">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="456">
+      <c r="F3" t="s" s="296">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="457">
+      <c r="G3" t="s" s="297">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="458">
+      <c r="H3" t="s" s="298">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="459">
+      <c r="I3" t="s" s="299">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="460">
+      <c r="J3" t="s" s="300">
         <v>12</v>
       </c>
     </row>

--- a/Application/AccountReport (03 Oct 2016).xlsx
+++ b/Application/AccountReport (03 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="30">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -96,15 +96,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>0364498572</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afro Jack</t>
   </si>
   <si>
@@ -114,25 +105,13 @@
     <t>6</t>
   </si>
   <si>
-    <t>Adam Lavine</t>
-  </si>
-  <si>
-    <t>0364478513</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Astrix Oblix</t>
   </si>
   <si>
     <t>0876337283</t>
   </si>
   <si>
-    <t>Rita Ora</t>
-  </si>
-  <si>
-    <t>0356614528</t>
+    <t>2</t>
   </si>
   <si>
     <t>Donald Trump</t>
@@ -4340,7 +4319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -4596,95 +4575,11 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="871">
+  <cellXfs count="841">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5084,16 +4979,6 @@
     <xf numFmtId="0" fontId="210" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5374,16 +5259,6 @@
     <xf numFmtId="0" fontId="360" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5546,16 +5421,6 @@
     <xf numFmtId="0" fontId="450" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -6199,9 +6064,9 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6324,136 +6189,136 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="76.328125" customWidth="true"/>
+    <col min="10" max="10" width="79.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="301">
+      <c r="A1" t="s" s="291">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="304">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="305">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="306">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="307">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="308">
+      <c r="B1" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="293">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="294">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="295">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="296">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="297">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="298">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="310">
+      <c r="I1" t="s" s="299">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="300">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="311">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="312">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="313">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="314">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="315">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="316">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="317">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="318">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="319">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="320">
+      <c r="A2" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="303">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="304">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="305">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="306">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="308">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="310">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="321">
+      <c r="A3" t="s" s="311">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="322">
+      <c r="B3" t="s" s="312">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="323">
+      <c r="C3" t="s" s="313">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="324">
+      <c r="D3" t="s" s="314">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="325">
+      <c r="E3" t="s" s="315">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="326">
+      <c r="F3" t="s" s="316">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="327">
+      <c r="G3" t="s" s="317">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="328">
+      <c r="H3" t="s" s="318">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="329">
+      <c r="I3" t="s" s="319">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="330">
+      <c r="J3" t="s" s="320">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="331">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="332">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="333">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="334">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="335">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="338">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="339">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="340">
+      <c r="A4" t="s" s="321">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="322">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="323">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="324">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="325">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="326">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="328">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="329">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="330">
         <v>1</v>
       </c>
     </row>
@@ -6481,104 +6346,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="341">
+      <c r="A1" t="s" s="331">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="342">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="343">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="344">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="345">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="346">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="347">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="348">
+      <c r="B1" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="333">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="334">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="335">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="338">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="349">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="350">
+      <c r="I1" t="s" s="339">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="340">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="351">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="352">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="353">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="354">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="355">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="356">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="357">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="358">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="359">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="360">
+      <c r="A2" t="s" s="341">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="342">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="343">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="344">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="350">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="361">
+      <c r="A3" t="s" s="351">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="362">
+      <c r="B3" t="s" s="352">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="363">
+      <c r="C3" t="s" s="353">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="364">
+      <c r="D3" t="s" s="354">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="365">
+      <c r="E3" t="s" s="355">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="366">
+      <c r="F3" t="s" s="356">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="367">
+      <c r="G3" t="s" s="357">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="368">
+      <c r="H3" t="s" s="358">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="369">
+      <c r="I3" t="s" s="359">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="370">
+      <c r="J3" t="s" s="360">
         <v>12</v>
       </c>
     </row>
@@ -6599,144 +6464,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="74.453125" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="371">
+      <c r="A1" t="s" s="361">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="372">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="373">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="374">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="375">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="376">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="377">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="378">
+      <c r="B1" t="s" s="362">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="363">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="368">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="379">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="380">
+      <c r="I1" t="s" s="369">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="370">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="381">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="382">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="383">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="384">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="385">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="386">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="387">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="388">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="389">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="390">
+      <c r="A2" t="s" s="371">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="378">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="379">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="380">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="391">
+      <c r="A3" t="s" s="381">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="392">
+      <c r="B3" t="s" s="382">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="393">
+      <c r="C3" t="s" s="383">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="394">
+      <c r="D3" t="s" s="384">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="395">
+      <c r="E3" t="s" s="385">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="396">
+      <c r="F3" t="s" s="386">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="397">
+      <c r="G3" t="s" s="387">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="398">
+      <c r="H3" t="s" s="388">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="399">
+      <c r="I3" t="s" s="389">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="400">
+      <c r="J3" t="s" s="390">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="401">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="402">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="403">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s" s="404">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="405">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="406">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="407">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="408">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="409">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="410">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6763,104 +6596,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="411">
+      <c r="A1" t="s" s="391">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="412">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="413">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="414">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="415">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="416">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="417">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="418">
+      <c r="B1" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="393">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="394">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="395">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="396">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="397">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="398">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="419">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="420">
+      <c r="I1" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="400">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="421">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="422">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="423">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="424">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="425">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="426">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="427">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="428">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="429">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="430">
+      <c r="A2" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="404">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="405">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="406">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="407">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="410">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="431">
+      <c r="A3" t="s" s="411">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="432">
+      <c r="B3" t="s" s="412">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="433">
+      <c r="C3" t="s" s="413">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="434">
+      <c r="D3" t="s" s="414">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="435">
+      <c r="E3" t="s" s="415">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="436">
+      <c r="F3" t="s" s="416">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="437">
+      <c r="G3" t="s" s="417">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="438">
+      <c r="H3" t="s" s="418">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="439">
+      <c r="I3" t="s" s="419">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="440">
+      <c r="J3" t="s" s="420">
         <v>12</v>
       </c>
     </row>
@@ -6888,104 +6721,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="441">
+      <c r="A1" t="s" s="421">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="442">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="443">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="444">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="445">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="446">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="447">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="448">
+      <c r="B1" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="423">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="426">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="427">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="428">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="449">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="450">
+      <c r="I1" t="s" s="429">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="430">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="451">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="452">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="453">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="454">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="455">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="456">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="457">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="458">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="459">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="460">
+      <c r="A2" t="s" s="431">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="432">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="433">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="434">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="435">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="438">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="439">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="440">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="461">
+      <c r="A3" t="s" s="441">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="462">
+      <c r="B3" t="s" s="442">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="463">
+      <c r="C3" t="s" s="443">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="464">
+      <c r="D3" t="s" s="444">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="465">
+      <c r="E3" t="s" s="445">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="466">
+      <c r="F3" t="s" s="446">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="467">
+      <c r="G3" t="s" s="447">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="468">
+      <c r="H3" t="s" s="448">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="469">
+      <c r="I3" t="s" s="449">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="470">
+      <c r="J3" t="s" s="450">
         <v>12</v>
       </c>
     </row>
@@ -7013,168 +6846,136 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="76.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="471">
+      <c r="A1" t="s" s="451">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="472">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="473">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="474">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="475">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="476">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="477">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="478">
+      <c r="B1" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="453">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="456">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="457">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="458">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="479">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="480">
+      <c r="I1" t="s" s="459">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="460">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="481">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="482">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="483">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="484">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="485">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="486">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="487">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="488">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="489">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="490">
+      <c r="A2" t="s" s="461">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="463">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="465">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="468">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="469">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="470">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="491">
+      <c r="A3" t="s" s="471">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="492">
+      <c r="B3" t="s" s="472">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="493">
+      <c r="C3" t="s" s="473">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="494">
+      <c r="D3" t="s" s="474">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="495">
+      <c r="E3" t="s" s="475">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="496">
+      <c r="F3" t="s" s="476">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="497">
+      <c r="G3" t="s" s="477">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="498">
+      <c r="H3" t="s" s="478">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="499">
+      <c r="I3" t="s" s="479">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="500">
+      <c r="J3" t="s" s="480">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="501">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="502">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s" s="503">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="504">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="505">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="506">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="507">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="509">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="511">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s" s="512">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s" s="513">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="514">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="515">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="516">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="517">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="518">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="519">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="520">
+      <c r="A4" t="s" s="481">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="482">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="483">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="485">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="486">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="487">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="488">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="489">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="490">
         <v>1</v>
       </c>
     </row>
@@ -7202,104 +7003,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="521">
+      <c r="A1" t="s" s="491">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="522">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="523">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="524">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="525">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="526">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="527">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="528">
+      <c r="B1" t="s" s="492">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="493">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="494">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="495">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="496">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="497">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="498">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="529">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="530">
+      <c r="I1" t="s" s="499">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="500">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="531">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="532">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="533">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="534">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="535">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="536">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="537">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="538">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="540">
+      <c r="A2" t="s" s="501">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="503">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="504">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="505">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="506">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="508">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="510">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="541">
+      <c r="A3" t="s" s="511">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="542">
+      <c r="B3" t="s" s="512">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="543">
+      <c r="C3" t="s" s="513">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="544">
+      <c r="D3" t="s" s="514">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="545">
+      <c r="E3" t="s" s="515">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="546">
+      <c r="F3" t="s" s="516">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="547">
+      <c r="G3" t="s" s="517">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="548">
+      <c r="H3" t="s" s="518">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="549">
+      <c r="I3" t="s" s="519">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="550">
+      <c r="J3" t="s" s="520">
         <v>12</v>
       </c>
     </row>
@@ -7327,104 +7128,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="551">
+      <c r="A1" t="s" s="521">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="552">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="553">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="554">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="555">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="556">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="557">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="558">
+      <c r="B1" t="s" s="522">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="523">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="524">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="525">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="526">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="527">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="528">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="559">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="560">
+      <c r="I1" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="530">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="561">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="562">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="563">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="564">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="565">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="566">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="567">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="568">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="569">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="570">
+      <c r="A2" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="535">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="536">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="537">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="538">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="540">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="571">
+      <c r="A3" t="s" s="541">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="572">
+      <c r="B3" t="s" s="542">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="573">
+      <c r="C3" t="s" s="543">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="574">
+      <c r="D3" t="s" s="544">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="575">
+      <c r="E3" t="s" s="545">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="576">
+      <c r="F3" t="s" s="546">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="577">
+      <c r="G3" t="s" s="547">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="578">
+      <c r="H3" t="s" s="548">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="579">
+      <c r="I3" t="s" s="549">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="580">
+      <c r="J3" t="s" s="550">
         <v>12</v>
       </c>
     </row>
@@ -7452,104 +7253,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="581">
+      <c r="A1" t="s" s="551">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="582">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="583">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="585">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="586">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="587">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="588">
+      <c r="B1" t="s" s="552">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="553">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="554">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="555">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="556">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="557">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="558">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="589">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="590">
+      <c r="I1" t="s" s="559">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="560">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="591">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="592">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="593">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="594">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="595">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="596">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="597">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="598">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="599">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="600">
+      <c r="A2" t="s" s="561">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="562">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="566">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="567">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="568">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="569">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="570">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="601">
+      <c r="A3" t="s" s="571">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="602">
+      <c r="B3" t="s" s="572">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="603">
+      <c r="C3" t="s" s="573">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="604">
+      <c r="D3" t="s" s="574">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="605">
+      <c r="E3" t="s" s="575">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="606">
+      <c r="F3" t="s" s="576">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="607">
+      <c r="G3" t="s" s="577">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="608">
+      <c r="H3" t="s" s="578">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="609">
+      <c r="I3" t="s" s="579">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="610">
+      <c r="J3" t="s" s="580">
         <v>12</v>
       </c>
     </row>
@@ -7577,104 +7378,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="611">
+      <c r="A1" t="s" s="581">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="612">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="613">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="614">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="615">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="616">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="617">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="618">
+      <c r="B1" t="s" s="582">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="586">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="587">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="588">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="619">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="620">
+      <c r="I1" t="s" s="589">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="590">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="621">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="622">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="623">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="624">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="625">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="626">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="627">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="628">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="629">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="630">
+      <c r="A2" t="s" s="591">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="592">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="593">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="594">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="595">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="596">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="597">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="598">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="599">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="600">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="631">
+      <c r="A3" t="s" s="601">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="632">
+      <c r="B3" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="633">
+      <c r="C3" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="634">
+      <c r="D3" t="s" s="604">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="635">
+      <c r="E3" t="s" s="605">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="636">
+      <c r="F3" t="s" s="606">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="637">
+      <c r="G3" t="s" s="607">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="638">
+      <c r="H3" t="s" s="608">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="639">
+      <c r="I3" t="s" s="609">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="640">
+      <c r="J3" t="s" s="610">
         <v>12</v>
       </c>
     </row>
@@ -7702,9 +7503,9 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="69.765625" customWidth="true"/>
+    <col min="10" max="10" width="72.578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7859,136 +7660,136 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="76.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="641">
+      <c r="A1" t="s" s="611">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="642">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="643">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="644">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="645">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="646">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="647">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="648">
+      <c r="B1" t="s" s="612">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="615">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="617">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="618">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="649">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="650">
+      <c r="I1" t="s" s="619">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="620">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="651">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="652">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="653">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="654">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="655">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="656">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="657">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="658">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="659">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="660">
+      <c r="A2" t="s" s="621">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="622">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="623">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="624">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="625">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="626">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="627">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="628">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="629">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="630">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="661">
+      <c r="A3" t="s" s="631">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="662">
+      <c r="B3" t="s" s="632">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="663">
+      <c r="C3" t="s" s="633">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="664">
+      <c r="D3" t="s" s="634">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="665">
+      <c r="E3" t="s" s="635">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="666">
+      <c r="F3" t="s" s="636">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="667">
+      <c r="G3" t="s" s="637">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="668">
+      <c r="H3" t="s" s="638">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="669">
+      <c r="I3" t="s" s="639">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="670">
+      <c r="J3" t="s" s="640">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="671">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="672">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s" s="673">
+      <c r="A4" t="s" s="641">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="642">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="643">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="674">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="675">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="676">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="677">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="678">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="679">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="680">
+      <c r="D4" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="645">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="646">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="647">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="648">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="649">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="650">
         <v>1</v>
       </c>
     </row>
@@ -8016,104 +7817,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="681">
+      <c r="A1" t="s" s="651">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="682">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="683">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="684">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="685">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="686">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="687">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="688">
+      <c r="B1" t="s" s="652">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="653">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="654">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="657">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="658">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="689">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="690">
+      <c r="I1" t="s" s="659">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="660">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="691">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="692">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="693">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="697">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="698">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="699">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="700">
+      <c r="A2" t="s" s="661">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="662">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="663">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="664">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="665">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="666">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="667">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="668">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="669">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="670">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="701">
+      <c r="A3" t="s" s="671">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="702">
+      <c r="B3" t="s" s="672">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="703">
+      <c r="C3" t="s" s="673">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="704">
+      <c r="D3" t="s" s="674">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="705">
+      <c r="E3" t="s" s="675">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="706">
+      <c r="F3" t="s" s="676">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="707">
+      <c r="G3" t="s" s="677">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="708">
+      <c r="H3" t="s" s="678">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="709">
+      <c r="I3" t="s" s="679">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="710">
+      <c r="J3" t="s" s="680">
         <v>12</v>
       </c>
     </row>
@@ -8141,136 +7942,136 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="74.453125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="711">
+      <c r="A1" t="s" s="681">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="712">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="713">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="714">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="715">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="716">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="717">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="718">
+      <c r="B1" t="s" s="682">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="683">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="684">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="685">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="686">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="687">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="688">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="719">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="720">
+      <c r="I1" t="s" s="689">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="690">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="721">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="722">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="723">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="724">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="725">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="726">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="727">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="728">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="729">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="730">
+      <c r="A2" t="s" s="691">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="692">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="693">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="694">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="699">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="700">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="731">
+      <c r="A3" t="s" s="701">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="732">
+      <c r="B3" t="s" s="702">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="733">
+      <c r="C3" t="s" s="703">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="734">
+      <c r="D3" t="s" s="704">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="735">
+      <c r="E3" t="s" s="705">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="736">
+      <c r="F3" t="s" s="706">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="737">
+      <c r="G3" t="s" s="707">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="738">
+      <c r="H3" t="s" s="708">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="739">
+      <c r="I3" t="s" s="709">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="740">
+      <c r="J3" t="s" s="710">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="741">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="742">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s" s="743">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="744">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="745">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="746">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="747">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="748">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="749">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="750">
+      <c r="A4" t="s" s="711">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="712">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="713">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="714">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="718">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="720">
         <v>1</v>
       </c>
     </row>
@@ -8298,104 +8099,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="751">
+      <c r="A1" t="s" s="721">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="752">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="753">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="754">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="755">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="756">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="757">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="758">
+      <c r="B1" t="s" s="722">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="723">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="724">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="728">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="759">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="760">
+      <c r="I1" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="730">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="761">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="762">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="763">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="764">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="765">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="766">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="767">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="768">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="769">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="770">
+      <c r="A2" t="s" s="731">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="732">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="733">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="734">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="735">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="736">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="737">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="738">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="739">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="740">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="771">
+      <c r="A3" t="s" s="741">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="772">
+      <c r="B3" t="s" s="742">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="773">
+      <c r="C3" t="s" s="743">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="774">
+      <c r="D3" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="775">
+      <c r="E3" t="s" s="745">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="776">
+      <c r="F3" t="s" s="746">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="777">
+      <c r="G3" t="s" s="747">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="778">
+      <c r="H3" t="s" s="748">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="779">
+      <c r="I3" t="s" s="749">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="780">
+      <c r="J3" t="s" s="750">
         <v>12</v>
       </c>
     </row>
@@ -8423,104 +8224,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="781">
+      <c r="A1" t="s" s="751">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="782">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="783">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="784">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="785">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="786">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="787">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="788">
+      <c r="B1" t="s" s="752">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="753">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="754">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="755">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="756">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="757">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="758">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="789">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="790">
+      <c r="I1" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="760">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="791">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="792">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="793">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="794">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="795">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="796">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="797">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="798">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="799">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="800">
+      <c r="A2" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="762">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="763">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="764">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="765">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="766">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="767">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="768">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="770">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="801">
+      <c r="A3" t="s" s="771">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="802">
+      <c r="B3" t="s" s="772">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="803">
+      <c r="C3" t="s" s="773">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="804">
+      <c r="D3" t="s" s="774">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="805">
+      <c r="E3" t="s" s="775">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="806">
+      <c r="F3" t="s" s="776">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="807">
+      <c r="G3" t="s" s="777">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="808">
+      <c r="H3" t="s" s="778">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="809">
+      <c r="I3" t="s" s="779">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="810">
+      <c r="J3" t="s" s="780">
         <v>12</v>
       </c>
     </row>
@@ -8548,104 +8349,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="811">
+      <c r="A1" t="s" s="781">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="812">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="813">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="814">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="815">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="816">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="817">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="818">
+      <c r="B1" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="783">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="784">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="785">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="786">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="787">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="788">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="819">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="820">
+      <c r="I1" t="s" s="789">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="790">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="821">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="822">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="823">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="824">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="825">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="826">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="827">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="828">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="829">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="830">
+      <c r="A2" t="s" s="791">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="792">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="793">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="794">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="795">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="796">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="797">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="798">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="799">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="800">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="831">
+      <c r="A3" t="s" s="801">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="832">
+      <c r="B3" t="s" s="802">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="833">
+      <c r="C3" t="s" s="803">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="834">
+      <c r="D3" t="s" s="804">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="835">
+      <c r="E3" t="s" s="805">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="836">
+      <c r="F3" t="s" s="806">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="837">
+      <c r="G3" t="s" s="807">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="838">
+      <c r="H3" t="s" s="808">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="839">
+      <c r="I3" t="s" s="809">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="840">
+      <c r="J3" t="s" s="810">
         <v>12</v>
       </c>
     </row>
@@ -8673,104 +8474,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="841">
+      <c r="A1" t="s" s="811">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="842">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="843">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="844">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="845">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="846">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="847">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="848">
+      <c r="B1" t="s" s="812">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="813">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="814">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="815">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="816">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="817">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="818">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="849">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="850">
+      <c r="I1" t="s" s="819">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="820">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="851">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="852">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="853">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="854">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="855">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="856">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="857">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="858">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="859">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="860">
+      <c r="A2" t="s" s="821">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="822">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="823">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="824">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="825">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="826">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="827">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="828">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="829">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="830">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="861">
+      <c r="A3" t="s" s="831">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="862">
+      <c r="B3" t="s" s="832">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="863">
+      <c r="C3" t="s" s="833">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="864">
+      <c r="D3" t="s" s="834">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="865">
+      <c r="E3" t="s" s="835">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="866">
+      <c r="F3" t="s" s="836">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="867">
+      <c r="G3" t="s" s="837">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="868">
+      <c r="H3" t="s" s="838">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="869">
+      <c r="I3" t="s" s="839">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="870">
+      <c r="J3" t="s" s="840">
         <v>12</v>
       </c>
     </row>
@@ -8798,9 +8599,9 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8923,9 +8724,9 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9048,9 +8849,9 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9173,9 +8974,9 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="76.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9323,16 +9124,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9429,38 +9230,6 @@
       </c>
       <c r="J3" t="s" s="230">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="231">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s" s="232">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s" s="233">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="235">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="236">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="237">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="239">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="240">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9487,104 +9256,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="241">
+      <c r="A1" t="s" s="231">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="242">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="243">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="244">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="245">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="248">
+      <c r="B1" t="s" s="232">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="233">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="234">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="235">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="236">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="238">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="250">
+      <c r="I1" t="s" s="239">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="240">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="251">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="252">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="253">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="254">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="255">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="256">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="257">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="258">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="259">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="260">
+      <c r="A2" t="s" s="241">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="242">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="243">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="244">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="245">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="250">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="261">
+      <c r="A3" t="s" s="251">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="262">
+      <c r="B3" t="s" s="252">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="263">
+      <c r="C3" t="s" s="253">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="264">
+      <c r="D3" t="s" s="254">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="265">
+      <c r="E3" t="s" s="255">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="266">
+      <c r="F3" t="s" s="256">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="267">
+      <c r="G3" t="s" s="257">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="268">
+      <c r="H3" t="s" s="258">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="269">
+      <c r="I3" t="s" s="259">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="270">
+      <c r="J3" t="s" s="260">
         <v>12</v>
       </c>
     </row>
@@ -9612,104 +9381,104 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="271">
+      <c r="A1" t="s" s="261">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="272">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="273">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="274">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="275">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="276">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="277">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="278">
+      <c r="B1" t="s" s="262">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="263">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="264">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="268">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="279">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="280">
+      <c r="I1" t="s" s="269">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="270">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="281">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="282">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="283">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="284">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="285">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="286">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="287">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="288">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="289">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="290">
+      <c r="A2" t="s" s="271">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="272">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="273">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="274">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="275">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="276">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="277">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="278">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="279">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="280">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="291">
+      <c r="A3" t="s" s="281">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="292">
+      <c r="B3" t="s" s="282">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="293">
+      <c r="C3" t="s" s="283">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="294">
+      <c r="D3" t="s" s="284">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="295">
+      <c r="E3" t="s" s="285">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="296">
+      <c r="F3" t="s" s="286">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="297">
+      <c r="G3" t="s" s="287">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="298">
+      <c r="H3" t="s" s="288">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="299">
+      <c r="I3" t="s" s="289">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="300">
+      <c r="J3" t="s" s="290">
         <v>12</v>
       </c>
     </row>

--- a/Application/AccountReport (03 Oct 2016).xlsx
+++ b/Application/AccountReport (03 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="39">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -78,6 +78,9 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Thu Oct 2016 17:48:39</t>
+  </si>
+  <si>
     <t>Rossouw Binedell</t>
   </si>
   <si>
@@ -96,6 +99,15 @@
     <t>7</t>
   </si>
   <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>0364498572</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Afro Jack</t>
   </si>
   <si>
@@ -105,13 +117,28 @@
     <t>6</t>
   </si>
   <si>
+    <t>Adam Lavine</t>
+  </si>
+  <si>
+    <t>0364478513</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Astrix Oblix</t>
   </si>
   <si>
     <t>0876337283</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Rita Ora</t>
+  </si>
+  <si>
+    <t>0356614528</t>
+  </si>
+  <si>
+    <t>Thu Oct 2016 17:48:40</t>
   </si>
   <si>
     <t>Donald Trump</t>
@@ -4319,7 +4346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -4575,11 +4602,95 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="841">
+  <cellXfs count="897">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4635,6 +4746,9 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4699,6 +4813,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4753,6 +4870,9 @@
     <xf numFmtId="0" fontId="90" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4807,6 +4927,9 @@
     <xf numFmtId="0" fontId="120" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4861,6 +4984,9 @@
     <xf numFmtId="0" fontId="150" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4925,6 +5051,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4979,6 +5108,19 @@
     <xf numFmtId="0" fontId="210" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5033,6 +5175,9 @@
     <xf numFmtId="0" fontId="240" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5087,6 +5232,9 @@
     <xf numFmtId="0" fontId="270" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5151,6 +5299,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5205,6 +5356,9 @@
     <xf numFmtId="0" fontId="330" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5259,6 +5413,19 @@
     <xf numFmtId="0" fontId="360" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5313,6 +5480,9 @@
     <xf numFmtId="0" fontId="390" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5367,6 +5537,9 @@
     <xf numFmtId="0" fontId="420" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5421,6 +5594,16 @@
     <xf numFmtId="0" fontId="450" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -5431,6 +5614,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5485,6 +5671,9 @@
     <xf numFmtId="0" fontId="480" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5539,6 +5728,9 @@
     <xf numFmtId="0" fontId="510" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5593,6 +5785,9 @@
     <xf numFmtId="0" fontId="540" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5647,6 +5842,9 @@
     <xf numFmtId="0" fontId="570" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5711,6 +5909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5765,6 +5966,9 @@
     <xf numFmtId="0" fontId="630" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5829,6 +6033,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5883,6 +6090,9 @@
     <xf numFmtId="0" fontId="690" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5937,6 +6147,9 @@
     <xf numFmtId="0" fontId="720" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5991,6 +6204,9 @@
     <xf numFmtId="0" fontId="750" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6044,6 +6260,9 @@
     </xf>
     <xf numFmtId="0" fontId="780" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -6165,10 +6384,16 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="31">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6195,137 +6420,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="291">
+      <c r="A1" t="s" s="310">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="292">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="293">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="294">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="295">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="296">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="297">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="298">
+      <c r="B1" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="313">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="314">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="315">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="316">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="317">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="299">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="300">
+      <c r="I1" t="s" s="318">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="319">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="301">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="304">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="305">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="306">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="307">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="308">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="310">
+      <c r="A2" t="s" s="320">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="321">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="322">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="323">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="324">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="325">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="326">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="328">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="329">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="311">
+      <c r="A3" t="s" s="330">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="312">
+      <c r="B3" t="s" s="331">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="313">
+      <c r="C3" t="s" s="332">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="314">
+      <c r="D3" t="s" s="333">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="315">
+      <c r="E3" t="s" s="334">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="316">
+      <c r="F3" t="s" s="335">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="317">
+      <c r="G3" t="s" s="336">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="318">
+      <c r="H3" t="s" s="337">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="319">
+      <c r="I3" t="s" s="338">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="320">
+      <c r="J3" t="s" s="339">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="321">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s" s="322">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s" s="323">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="324">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="325">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="326">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="327">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="328">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="329">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="330">
-        <v>1</v>
+      <c r="A4" t="s" s="340">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="341">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="342">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="343">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="344">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="350">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6352,105 +6583,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="331">
+      <c r="A1" t="s" s="351">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="332">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="333">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="334">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="335">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="338">
+      <c r="B1" t="s" s="352">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="353">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="354">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="355">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="358">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="339">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="340">
+      <c r="I1" t="s" s="359">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="360">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="341">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="342">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="343">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="344">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="345">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="346">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="347">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="348">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="349">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="350">
+      <c r="A2" t="s" s="361">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="362">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="363">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="368">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="369">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="370">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="351">
+      <c r="A3" t="s" s="371">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="352">
+      <c r="B3" t="s" s="372">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="353">
+      <c r="C3" t="s" s="373">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="354">
+      <c r="D3" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="355">
+      <c r="E3" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="356">
+      <c r="F3" t="s" s="376">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="357">
+      <c r="G3" t="s" s="377">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="358">
+      <c r="H3" t="s" s="378">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="359">
+      <c r="I3" t="s" s="379">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="360">
+      <c r="J3" t="s" s="380">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="381">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6464,7 +6701,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="11.25" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -6473,109 +6710,147 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="77.265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="361">
+      <c r="A1" t="s" s="382">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="362">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="363">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="364">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="365">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="366">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="367">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="368">
+      <c r="B1" t="s" s="383">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="384">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="385">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="386">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="387">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="388">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="389">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="369">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="370">
+      <c r="I1" t="s" s="390">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="391">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="371">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="372">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="373">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="374">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="375">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="376">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="377">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="378">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="379">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="380">
+      <c r="A2" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="393">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="394">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="395">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="396">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="397">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="398">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="401">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="381">
+      <c r="A3" t="s" s="402">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="382">
+      <c r="B3" t="s" s="403">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="383">
+      <c r="C3" t="s" s="404">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="384">
+      <c r="D3" t="s" s="405">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="385">
+      <c r="E3" t="s" s="406">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="386">
+      <c r="F3" t="s" s="407">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="387">
+      <c r="G3" t="s" s="408">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="388">
+      <c r="H3" t="s" s="409">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="389">
+      <c r="I3" t="s" s="410">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="390">
+      <c r="J3" t="s" s="411">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="412">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="413">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="414">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="415">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="416">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="418">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="422">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6602,105 +6877,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="391">
+      <c r="A1" t="s" s="423">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="392">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="393">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="394">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="395">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="396">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="397">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="398">
+      <c r="B1" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="426">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="427">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="428">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="429">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="430">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="399">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="400">
+      <c r="I1" t="s" s="431">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="432">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="401">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="402">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="403">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="404">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="405">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="406">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="407">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="408">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="409">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="410">
+      <c r="A2" t="s" s="433">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="434">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="435">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="438">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="439">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="440">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="441">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="442">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="411">
+      <c r="A3" t="s" s="443">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="412">
+      <c r="B3" t="s" s="444">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="413">
+      <c r="C3" t="s" s="445">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="414">
+      <c r="D3" t="s" s="446">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="415">
+      <c r="E3" t="s" s="447">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="416">
+      <c r="F3" t="s" s="448">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="417">
+      <c r="G3" t="s" s="449">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="418">
+      <c r="H3" t="s" s="450">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="419">
+      <c r="I3" t="s" s="451">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="420">
+      <c r="J3" t="s" s="452">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="453">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6727,105 +7008,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="421">
+      <c r="A1" t="s" s="454">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="422">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="423">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="424">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="425">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="426">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="427">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="428">
+      <c r="B1" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="456">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="457">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="458">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="459">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="460">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="461">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="429">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="430">
+      <c r="I1" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="463">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="431">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="432">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="433">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="434">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="435">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="436">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="437">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="438">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="439">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="440">
+      <c r="A2" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="465">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="468">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="469">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="470">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="471">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="473">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="441">
+      <c r="A3" t="s" s="474">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="442">
+      <c r="B3" t="s" s="475">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="443">
+      <c r="C3" t="s" s="476">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="444">
+      <c r="D3" t="s" s="477">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="445">
+      <c r="E3" t="s" s="478">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="446">
+      <c r="F3" t="s" s="479">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="447">
+      <c r="G3" t="s" s="480">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="448">
+      <c r="H3" t="s" s="481">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="449">
+      <c r="I3" t="s" s="482">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="450">
+      <c r="J3" t="s" s="483">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="484">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6852,137 +7139,175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="451">
+      <c r="A1" t="s" s="485">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="452">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="453">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="454">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="455">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="456">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="457">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="458">
+      <c r="B1" t="s" s="486">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="487">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="488">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="489">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="490">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="491">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="492">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="459">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="460">
+      <c r="I1" t="s" s="493">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="494">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="461">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="462">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="463">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="464">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="465">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="466">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="467">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="468">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="469">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="470">
+      <c r="A2" t="s" s="495">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="496">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="497">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="498">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="499">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="500">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="501">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="503">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="504">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="471">
+      <c r="A3" t="s" s="505">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="472">
+      <c r="B3" t="s" s="506">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="473">
+      <c r="C3" t="s" s="507">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="474">
+      <c r="D3" t="s" s="508">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="475">
+      <c r="E3" t="s" s="509">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="476">
+      <c r="F3" t="s" s="510">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="477">
+      <c r="G3" t="s" s="511">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="478">
+      <c r="H3" t="s" s="512">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="479">
+      <c r="I3" t="s" s="513">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="480">
+      <c r="J3" t="s" s="514">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="481">
+      <c r="A4" t="s" s="515">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="516">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="517">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="482">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="483">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="484">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="485">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="486">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="487">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="488">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="489">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="490">
-        <v>1</v>
+      <c r="D4" t="s" s="518">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="519">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="520">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="521">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="522">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="523">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="525">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="526">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="527">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="528">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="530">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="535">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7009,105 +7334,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="491">
+      <c r="A1" t="s" s="536">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="492">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="493">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="494">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="495">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="496">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="497">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="498">
+      <c r="B1" t="s" s="537">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="538">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="540">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="543">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="499">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="500">
+      <c r="I1" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="545">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="501">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="502">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="503">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="504">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="505">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="506">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="507">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="509">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="510">
+      <c r="A2" t="s" s="546">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="547">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="548">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="549">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="550">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="551">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="552">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="553">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="554">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="555">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="511">
+      <c r="A3" t="s" s="556">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="512">
+      <c r="B3" t="s" s="557">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="513">
+      <c r="C3" t="s" s="558">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="514">
+      <c r="D3" t="s" s="559">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="515">
+      <c r="E3" t="s" s="560">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="516">
+      <c r="F3" t="s" s="561">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="517">
+      <c r="G3" t="s" s="562">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="518">
+      <c r="H3" t="s" s="563">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="519">
+      <c r="I3" t="s" s="564">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="520">
+      <c r="J3" t="s" s="565">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="566">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7134,105 +7465,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="521">
+      <c r="A1" t="s" s="567">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="522">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="523">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="524">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="525">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="526">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="527">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="528">
+      <c r="B1" t="s" s="568">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="569">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="570">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="571">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="572">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="574">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="529">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="530">
+      <c r="I1" t="s" s="575">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="576">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="531">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="532">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="533">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="534">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="535">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="536">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="537">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="538">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="540">
+      <c r="A2" t="s" s="577">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="578">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="579">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="580">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="581">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="582">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="586">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="541">
+      <c r="A3" t="s" s="587">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="542">
+      <c r="B3" t="s" s="588">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="543">
+      <c r="C3" t="s" s="589">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="544">
+      <c r="D3" t="s" s="590">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="545">
+      <c r="E3" t="s" s="591">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="546">
+      <c r="F3" t="s" s="592">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="547">
+      <c r="G3" t="s" s="593">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="548">
+      <c r="H3" t="s" s="594">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="549">
+      <c r="I3" t="s" s="595">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="550">
+      <c r="J3" t="s" s="596">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="597">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7259,105 +7596,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="551">
+      <c r="A1" t="s" s="598">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="552">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="553">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="554">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="555">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="556">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="557">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="558">
+      <c r="B1" t="s" s="599">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="600">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="601">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="602">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="603">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="604">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="605">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="559">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="560">
+      <c r="I1" t="s" s="606">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="607">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="561">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="562">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="563">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="564">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="565">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="566">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="567">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="568">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="569">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="570">
+      <c r="A2" t="s" s="608">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="609">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="610">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="611">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="612">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="615">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="617">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="571">
+      <c r="A3" t="s" s="618">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="572">
+      <c r="B3" t="s" s="619">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="573">
+      <c r="C3" t="s" s="620">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="574">
+      <c r="D3" t="s" s="621">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="575">
+      <c r="E3" t="s" s="622">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="576">
+      <c r="F3" t="s" s="623">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="577">
+      <c r="G3" t="s" s="624">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="578">
+      <c r="H3" t="s" s="625">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="579">
+      <c r="I3" t="s" s="626">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="580">
+      <c r="J3" t="s" s="627">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="628">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7384,105 +7727,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="581">
+      <c r="A1" t="s" s="629">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="582">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="583">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="585">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="586">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="587">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="588">
+      <c r="B1" t="s" s="630">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="631">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="632">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="633">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="634">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="635">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="636">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="589">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="590">
+      <c r="I1" t="s" s="637">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="638">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="591">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="592">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="593">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="594">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="595">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="596">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="597">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="598">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="599">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="600">
+      <c r="A2" t="s" s="639">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="640">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="641">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="642">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="645">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="646">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="647">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="648">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="601">
+      <c r="A3" t="s" s="649">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="602">
+      <c r="B3" t="s" s="650">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="603">
+      <c r="C3" t="s" s="651">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="604">
+      <c r="D3" t="s" s="652">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="605">
+      <c r="E3" t="s" s="653">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="606">
+      <c r="F3" t="s" s="654">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="607">
+      <c r="G3" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="608">
+      <c r="H3" t="s" s="656">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="609">
+      <c r="I3" t="s" s="657">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="610">
+      <c r="J3" t="s" s="658">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="659">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7509,137 +7858,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="31">
+      <c r="A1" t="s" s="32">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="32">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="33">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="34">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="35">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="36">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="37">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="38">
+      <c r="B1" t="s" s="33">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="34">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="35">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="36">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="37">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="38">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="39">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="39">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="40">
+      <c r="I1" t="s" s="40">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="43">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="44">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="47">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="50">
+      <c r="A2" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="44">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="51">
+      <c r="A3" t="s" s="52">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="52">
+      <c r="B3" t="s" s="53">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="53">
+      <c r="C3" t="s" s="54">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="54">
+      <c r="D3" t="s" s="55">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="55">
+      <c r="E3" t="s" s="56">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="56">
+      <c r="F3" t="s" s="57">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="57">
+      <c r="G3" t="s" s="58">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="58">
+      <c r="H3" t="s" s="59">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="59">
+      <c r="I3" t="s" s="60">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="60">
+      <c r="J3" t="s" s="61">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="61">
+      <c r="A4" t="s" s="62">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="64">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="72">
         <v>13</v>
-      </c>
-      <c r="B4" t="s" s="62">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="63">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="64">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="70">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7666,137 +8021,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="611">
+      <c r="A1" t="s" s="660">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="612">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="613">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="614">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="615">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="616">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="617">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="618">
+      <c r="B1" t="s" s="661">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="662">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="663">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="664">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="665">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="666">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="667">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="619">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="620">
+      <c r="I1" t="s" s="668">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="669">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="621">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="622">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="623">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="624">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="625">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="626">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="627">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="628">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="629">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="630">
+      <c r="A2" t="s" s="670">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="671">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="672">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="673">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="674">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="675">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="676">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="677">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="678">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="679">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="631">
+      <c r="A3" t="s" s="680">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="632">
+      <c r="B3" t="s" s="681">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="633">
+      <c r="C3" t="s" s="682">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="634">
+      <c r="D3" t="s" s="683">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="635">
+      <c r="E3" t="s" s="684">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="636">
+      <c r="F3" t="s" s="685">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="637">
+      <c r="G3" t="s" s="686">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="638">
+      <c r="H3" t="s" s="687">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="639">
+      <c r="I3" t="s" s="688">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="640">
+      <c r="J3" t="s" s="689">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="641">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="642">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="643">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="644">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="645">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="646">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="647">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="648">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="649">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="650">
-        <v>1</v>
+      <c r="A4" t="s" s="690">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="691">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="693">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="694">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="700">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7823,105 +8184,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="651">
+      <c r="A1" t="s" s="701">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="652">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="653">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="654">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="655">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="656">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="657">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="658">
+      <c r="B1" t="s" s="702">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="703">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="704">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="705">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="706">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="707">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="708">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="659">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="660">
+      <c r="I1" t="s" s="709">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="710">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="661">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="662">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="663">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="664">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="665">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="666">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="667">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="668">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="669">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="670">
+      <c r="A2" t="s" s="711">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="712">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="713">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="714">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="718">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="720">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="671">
+      <c r="A3" t="s" s="721">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="672">
+      <c r="B3" t="s" s="722">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="673">
+      <c r="C3" t="s" s="723">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="674">
+      <c r="D3" t="s" s="724">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="675">
+      <c r="E3" t="s" s="725">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="676">
+      <c r="F3" t="s" s="726">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="677">
+      <c r="G3" t="s" s="727">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="678">
+      <c r="H3" t="s" s="728">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="679">
+      <c r="I3" t="s" s="729">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="680">
+      <c r="J3" t="s" s="730">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="731">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7948,137 +8315,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="681">
+      <c r="A1" t="s" s="732">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="682">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="683">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="684">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="685">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="686">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="687">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="688">
+      <c r="B1" t="s" s="733">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="734">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="735">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="736">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="737">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="738">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="739">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="689">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="690">
+      <c r="I1" t="s" s="740">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="741">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="691">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="692">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="693">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="697">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="698">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="699">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="700">
+      <c r="A2" t="s" s="742">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="743">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="744">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="745">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="746">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="747">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="748">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="749">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="750">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="751">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="701">
+      <c r="A3" t="s" s="752">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="702">
+      <c r="B3" t="s" s="753">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="703">
+      <c r="C3" t="s" s="754">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="704">
+      <c r="D3" t="s" s="755">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="705">
+      <c r="E3" t="s" s="756">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="706">
+      <c r="F3" t="s" s="757">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="707">
+      <c r="G3" t="s" s="758">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="708">
+      <c r="H3" t="s" s="759">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="709">
+      <c r="I3" t="s" s="760">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="710">
+      <c r="J3" t="s" s="761">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="711">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s" s="712">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="713">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s" s="714">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="715">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="716">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="717">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="718">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="719">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="720">
-        <v>1</v>
+      <c r="A4" t="s" s="762">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="763">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="764">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="765">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="766">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="767">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="768">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="770">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="772">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8105,105 +8478,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="721">
+      <c r="A1" t="s" s="773">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="722">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="723">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="724">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="725">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="726">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="727">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="728">
+      <c r="B1" t="s" s="774">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="775">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="776">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="777">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="778">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="779">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="780">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="729">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="730">
+      <c r="I1" t="s" s="781">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="782">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="731">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="732">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="733">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="734">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="735">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="736">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="737">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="738">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="739">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="740">
+      <c r="A2" t="s" s="783">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="784">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="785">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="786">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="787">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="788">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="789">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="790">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="791">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="792">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="741">
+      <c r="A3" t="s" s="793">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="742">
+      <c r="B3" t="s" s="794">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="743">
+      <c r="C3" t="s" s="795">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="744">
+      <c r="D3" t="s" s="796">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="745">
+      <c r="E3" t="s" s="797">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="746">
+      <c r="F3" t="s" s="798">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="747">
+      <c r="G3" t="s" s="799">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="748">
+      <c r="H3" t="s" s="800">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="749">
+      <c r="I3" t="s" s="801">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="750">
+      <c r="J3" t="s" s="802">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="803">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8230,105 +8609,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="751">
+      <c r="A1" t="s" s="804">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="752">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="753">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="754">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="755">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="756">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="757">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="758">
+      <c r="B1" t="s" s="805">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="806">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="807">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="808">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="809">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="810">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="811">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="759">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="760">
+      <c r="I1" t="s" s="812">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="813">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="761">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="762">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="763">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="764">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="765">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="766">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="767">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="768">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="769">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="770">
+      <c r="A2" t="s" s="814">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="815">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="816">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="817">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="818">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="819">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="820">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="821">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="822">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="823">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="771">
+      <c r="A3" t="s" s="824">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="772">
+      <c r="B3" t="s" s="825">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="773">
+      <c r="C3" t="s" s="826">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="774">
+      <c r="D3" t="s" s="827">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="775">
+      <c r="E3" t="s" s="828">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="776">
+      <c r="F3" t="s" s="829">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="777">
+      <c r="G3" t="s" s="830">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="778">
+      <c r="H3" t="s" s="831">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="779">
+      <c r="I3" t="s" s="832">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="780">
+      <c r="J3" t="s" s="833">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="834">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8355,105 +8740,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="781">
+      <c r="A1" t="s" s="835">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="782">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="783">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="784">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="785">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="786">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="787">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="788">
+      <c r="B1" t="s" s="836">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="837">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="838">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="839">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="840">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="841">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="842">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="789">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="790">
+      <c r="I1" t="s" s="843">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="844">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="791">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="792">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="793">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="794">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="795">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="796">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="797">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="798">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="799">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="800">
+      <c r="A2" t="s" s="845">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="846">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="847">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="848">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="849">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="850">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="851">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="852">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="853">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="854">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="801">
+      <c r="A3" t="s" s="855">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="802">
+      <c r="B3" t="s" s="856">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="803">
+      <c r="C3" t="s" s="857">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="804">
+      <c r="D3" t="s" s="858">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="805">
+      <c r="E3" t="s" s="859">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="806">
+      <c r="F3" t="s" s="860">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="807">
+      <c r="G3" t="s" s="861">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="808">
+      <c r="H3" t="s" s="862">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="809">
+      <c r="I3" t="s" s="863">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="810">
+      <c r="J3" t="s" s="864">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="865">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8480,105 +8871,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="811">
+      <c r="A1" t="s" s="866">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="812">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="813">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="814">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="815">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="816">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="817">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="818">
+      <c r="B1" t="s" s="867">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="868">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="869">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="870">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="871">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="872">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="873">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="819">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="820">
+      <c r="I1" t="s" s="874">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="875">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="821">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="822">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="823">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="824">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="825">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="826">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="827">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="828">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="829">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="830">
+      <c r="A2" t="s" s="876">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="877">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="878">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="879">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="880">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="881">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="882">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="883">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="884">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="885">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="831">
+      <c r="A3" t="s" s="886">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="832">
+      <c r="B3" t="s" s="887">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="833">
+      <c r="C3" t="s" s="888">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="834">
+      <c r="D3" t="s" s="889">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="835">
+      <c r="E3" t="s" s="890">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="836">
+      <c r="F3" t="s" s="891">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="837">
+      <c r="G3" t="s" s="892">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="838">
+      <c r="H3" t="s" s="893">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="839">
+      <c r="I3" t="s" s="894">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="840">
+      <c r="J3" t="s" s="895">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="896">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8605,105 +9002,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="71">
+      <c r="A1" t="s" s="73">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="72">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="75">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="76">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="78">
+      <c r="B1" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="76">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="80">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="79">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="80">
+      <c r="I1" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="90">
+      <c r="A2" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="91">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="91">
+      <c r="A3" t="s" s="93">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="92">
+      <c r="B3" t="s" s="94">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="93">
+      <c r="C3" t="s" s="95">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="94">
+      <c r="D3" t="s" s="96">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="95">
+      <c r="E3" t="s" s="97">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="96">
+      <c r="F3" t="s" s="98">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="97">
+      <c r="G3" t="s" s="99">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="98">
+      <c r="H3" t="s" s="100">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="99">
+      <c r="I3" t="s" s="101">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="100">
+      <c r="J3" t="s" s="102">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="103">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8730,105 +9133,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="101">
+      <c r="A1" t="s" s="104">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="103">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="107">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="108">
+      <c r="B1" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="107">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="108">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="109">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="111">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="109">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="110">
+      <c r="I1" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="113">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="119">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="120">
+      <c r="A2" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="117">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="119">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="120">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="121">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="121">
+      <c r="A3" t="s" s="124">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="122">
+      <c r="B3" t="s" s="125">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="123">
+      <c r="C3" t="s" s="126">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="124">
+      <c r="D3" t="s" s="127">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="125">
+      <c r="E3" t="s" s="128">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="126">
+      <c r="F3" t="s" s="129">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="127">
+      <c r="G3" t="s" s="130">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="128">
+      <c r="H3" t="s" s="131">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="129">
+      <c r="I3" t="s" s="132">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="130">
+      <c r="J3" t="s" s="133">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="134">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8855,105 +9264,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="131">
+      <c r="A1" t="s" s="135">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="135">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="137">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="138">
+      <c r="B1" t="s" s="136">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="137">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="140">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="142">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="140">
+      <c r="I1" t="s" s="143">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="141">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="142">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="144">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="145">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="149">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="150">
+      <c r="A2" t="s" s="145">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="151">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="152">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="153">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="154">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="151">
+      <c r="A3" t="s" s="155">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="152">
+      <c r="B3" t="s" s="156">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="153">
+      <c r="C3" t="s" s="157">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="154">
+      <c r="D3" t="s" s="158">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="155">
+      <c r="E3" t="s" s="159">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="156">
+      <c r="F3" t="s" s="160">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="157">
+      <c r="G3" t="s" s="161">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="158">
+      <c r="H3" t="s" s="162">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="159">
+      <c r="I3" t="s" s="163">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="160">
+      <c r="J3" t="s" s="164">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="165">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8980,137 +9395,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="161">
+      <c r="A1" t="s" s="166">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="162">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="163">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="164">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="165">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="166">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="167">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="168">
+      <c r="B1" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="171">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="172">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="173">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="169">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="170">
+      <c r="I1" t="s" s="174">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="175">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="171">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="172">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="173">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="179">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="180">
+      <c r="A2" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="179">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="180">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="181">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="182">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="183">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="184">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="185">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="181">
+      <c r="A3" t="s" s="186">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="182">
+      <c r="B3" t="s" s="187">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="183">
+      <c r="C3" t="s" s="188">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="184">
+      <c r="D3" t="s" s="189">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="185">
+      <c r="E3" t="s" s="190">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="186">
+      <c r="F3" t="s" s="191">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="187">
+      <c r="G3" t="s" s="192">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="188">
+      <c r="H3" t="s" s="193">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="189">
+      <c r="I3" t="s" s="194">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="190">
+      <c r="J3" t="s" s="195">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="191">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="192">
+      <c r="A4" t="s" s="196">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="193">
+      <c r="B4" t="s" s="197">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="195">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="196">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="197">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="198">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="199">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="200">
-        <v>1</v>
+      <c r="C4" t="s" s="198">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="199">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="200">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="201">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="204">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="206">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9124,7 +9545,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="12.1875" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -9133,109 +9554,147 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="76.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="201">
+      <c r="A1" t="s" s="207">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="204">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="207">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="208">
+      <c r="B1" t="s" s="208">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="209">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="211">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="212">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="213">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="214">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="210">
+      <c r="I1" t="s" s="215">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="216">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="211">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="212">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="213">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="214">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="215">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="216">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="217">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="218">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="219">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="220">
+      <c r="A2" t="s" s="217">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="219">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="220">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="221">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="223">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="224">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="225">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="226">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="221">
+      <c r="A3" t="s" s="227">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="222">
+      <c r="B3" t="s" s="228">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="223">
+      <c r="C3" t="s" s="229">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="224">
+      <c r="D3" t="s" s="230">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="225">
+      <c r="E3" t="s" s="231">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="226">
+      <c r="F3" t="s" s="232">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="227">
+      <c r="G3" t="s" s="233">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="228">
+      <c r="H3" t="s" s="234">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="229">
+      <c r="I3" t="s" s="235">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="230">
+      <c r="J3" t="s" s="236">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="237">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="238">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="239">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s" s="240">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="241">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="242">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="243">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="244">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="245">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="247">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9262,105 +9721,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="231">
+      <c r="A1" t="s" s="248">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="232">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="233">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="235">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="236">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="237">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="238">
+      <c r="B1" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="250">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="251">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="252">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="253">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="254">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="255">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="239">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="240">
+      <c r="I1" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="257">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="241">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="242">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="243">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="244">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="245">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="250">
+      <c r="A2" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="260">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="261">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="262">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="263">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="264">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="267">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="251">
+      <c r="A3" t="s" s="268">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="252">
+      <c r="B3" t="s" s="269">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="253">
+      <c r="C3" t="s" s="270">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="254">
+      <c r="D3" t="s" s="271">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="255">
+      <c r="E3" t="s" s="272">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="256">
+      <c r="F3" t="s" s="273">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="257">
+      <c r="G3" t="s" s="274">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="258">
+      <c r="H3" t="s" s="275">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="259">
+      <c r="I3" t="s" s="276">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="260">
+      <c r="J3" t="s" s="277">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="278">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9387,105 +9852,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="261">
+      <c r="A1" t="s" s="279">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="262">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="263">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="264">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="265">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="266">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="267">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="268">
+      <c r="B1" t="s" s="280">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="281">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="282">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="283">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="284">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="285">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="286">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="269">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="270">
+      <c r="I1" t="s" s="287">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="288">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="271">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="272">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="273">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="274">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="275">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="276">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="277">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="278">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="279">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="280">
+      <c r="A2" t="s" s="289">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="290">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="293">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="294">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="295">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="296">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="297">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="298">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="281">
+      <c r="A3" t="s" s="299">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="282">
+      <c r="B3" t="s" s="300">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="283">
+      <c r="C3" t="s" s="301">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="284">
+      <c r="D3" t="s" s="302">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="285">
+      <c r="E3" t="s" s="303">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="286">
+      <c r="F3" t="s" s="304">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="287">
+      <c r="G3" t="s" s="305">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="288">
+      <c r="H3" t="s" s="306">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="289">
+      <c r="I3" t="s" s="307">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="290">
+      <c r="J3" t="s" s="308">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="309">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/AccountReport (03 Oct 2016).xlsx
+++ b/Application/AccountReport (03 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="145">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -78,7 +78,40 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Thu Oct 2016 17:48:39</t>
+    <t>Keanu Arendze</t>
+  </si>
+  <si>
+    <t>0746446895</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Luntu Arendze</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:16</t>
+  </si>
+  <si>
+    <t>Christiaan Barnard</t>
+  </si>
+  <si>
+    <t>0219976485</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>0645554478</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>Rossouw Binedell</t>
@@ -87,7 +120,91 @@
     <t>0234567890</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Sirius Black</t>
+  </si>
+  <si>
+    <t>0876662526</t>
+  </si>
+  <si>
+    <t>Karel Bremmer</t>
+  </si>
+  <si>
+    <t>0231153489</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>0797979797</t>
+  </si>
+  <si>
+    <t>Amanda Bynes</t>
+  </si>
+  <si>
+    <t>0698847563</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:17</t>
+  </si>
+  <si>
+    <t>Bonnie Clyde</t>
+  </si>
+  <si>
+    <t>0283744444</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>0346969874</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Alice Cullen</t>
+  </si>
+  <si>
+    <t>0786662772</t>
+  </si>
+  <si>
+    <t>Edward  Cullen</t>
+  </si>
+  <si>
+    <t>0786663535</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>0782828252</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>0314569832</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>0786665254</t>
+  </si>
+  <si>
+    <t>Dudley Dursley</t>
+  </si>
+  <si>
+    <t>0786552662</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Harison Ford</t>
@@ -96,25 +213,58 @@
     <t>0786653216</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Selena Gomez</t>
   </si>
   <si>
     <t>0364498572</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>0324487569</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>0786665525</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>0782725541</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>0989898987</t>
+  </si>
+  <si>
+    <t>Kendral Jennar</t>
+  </si>
+  <si>
+    <t>0324458762</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>0879971172</t>
+  </si>
+  <si>
+    <t>James Earl Jones</t>
+  </si>
+  <si>
+    <t>0642253486</t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t>0876543767</t>
   </si>
   <si>
     <t>Adam Lavine</t>
@@ -123,7 +273,40 @@
     <t>0364478513</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Dane Left</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>0897726552</t>
+  </si>
+  <si>
+    <t>Luna Lovegood</t>
+  </si>
+  <si>
+    <t>0897776625</t>
+  </si>
+  <si>
+    <t>Draco Malfoy</t>
+  </si>
+  <si>
+    <t>0785524422</t>
+  </si>
+  <si>
+    <t>Dennis Menace</t>
+  </si>
+  <si>
+    <t>0987656543</t>
+  </si>
+  <si>
+    <t>Liam Neeson</t>
+  </si>
+  <si>
+    <t>0283746574</t>
+  </si>
+  <si>
+    <t>Florence NightingGale</t>
   </si>
   <si>
     <t>Astrix Oblix</t>
@@ -132,19 +315,106 @@
     <t>0876337283</t>
   </si>
   <si>
+    <t>Jimmy Olsen</t>
+  </si>
+  <si>
+    <t>0897776552</t>
+  </si>
+  <si>
     <t>Rita Ora</t>
   </si>
   <si>
     <t>0356614528</t>
   </si>
   <si>
-    <t>Thu Oct 2016 17:48:40</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>0111112222</t>
+    <t>Peter Petagru</t>
+  </si>
+  <si>
+    <t>0786665252</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>0783547463</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>0786543876</t>
+  </si>
+  <si>
+    <t>James Potter</t>
+  </si>
+  <si>
+    <t>0987776542</t>
+  </si>
+  <si>
+    <t>Lone Ranger</t>
+  </si>
+  <si>
+    <t>0832534637</t>
+  </si>
+  <si>
+    <t>Rowena Ravenclaw</t>
+  </si>
+  <si>
+    <t>0781828292</t>
+  </si>
+  <si>
+    <t>Tom Marvolo (AKA Lord Voldormort) Riddle</t>
+  </si>
+  <si>
+    <t>0782625252</t>
+  </si>
+  <si>
+    <t>Seth Rogen</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:18</t>
+  </si>
+  <si>
+    <t>Damon Salvatore</t>
+  </si>
+  <si>
+    <t>0782282828</t>
+  </si>
+  <si>
+    <t>Stefan Salvatore</t>
+  </si>
+  <si>
+    <t>0873737373</t>
+  </si>
+  <si>
+    <t>White Shadow</t>
+  </si>
+  <si>
+    <t>0796857463</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>0647759832</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>0876666552</t>
+  </si>
+  <si>
+    <t>Chloe Sullivan</t>
+  </si>
+  <si>
+    <t>0786665555</t>
+  </si>
+  <si>
+    <t>Ellen TheGenarous</t>
+  </si>
+  <si>
+    <t>0647758942</t>
   </si>
   <si>
     <t>Darth Vader</t>
@@ -154,6 +424,54 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Albert Van Dame</t>
+  </si>
+  <si>
+    <t>0316647582</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>0315524652</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>0782821188</t>
+  </si>
+  <si>
+    <t>Ginny Weasly</t>
+  </si>
+  <si>
+    <t>0782525161</t>
+  </si>
+  <si>
+    <t>Ronald Weasly</t>
+  </si>
+  <si>
+    <t>0876655252</t>
+  </si>
+  <si>
+    <t>Sydney White</t>
+  </si>
+  <si>
+    <t>0897654433</t>
+  </si>
+  <si>
+    <t>Rene Woodford</t>
+  </si>
+  <si>
+    <t>0876665555</t>
+  </si>
+  <si>
+    <t>Danny Zuko</t>
+  </si>
+  <si>
+    <t>0219876655</t>
   </si>
 </sst>
 </file>
@@ -4486,7 +4804,7 @@
       <top>
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -4500,7 +4818,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -4542,12 +4860,82 @@
       <top>
         <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -4564,13 +4952,27 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top>
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -4602,95 +5004,11 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="897">
+  <cellXfs count="1457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4746,6 +5064,56 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -4813,6 +5181,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -4870,6 +5298,46 @@
     <xf numFmtId="0" fontId="90" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -4927,6 +5395,56 @@
     <xf numFmtId="0" fontId="120" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5041,16 +5559,16 @@
     <xf numFmtId="0" fontId="180" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5118,6 +5636,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5175,6 +5703,16 @@
     <xf numFmtId="0" fontId="240" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5299,6 +5837,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5356,6 +5924,16 @@
     <xf numFmtId="0" fontId="330" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5423,6 +6001,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5480,6 +6088,26 @@
     <xf numFmtId="0" fontId="390" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5537,6 +6165,26 @@
     <xf numFmtId="0" fontId="420" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5594,6 +6242,26 @@
     <xf numFmtId="0" fontId="450" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -5604,16 +6272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5671,6 +6329,46 @@
     <xf numFmtId="0" fontId="480" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5785,6 +6483,46 @@
     <xf numFmtId="0" fontId="540" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5842,6 +6580,66 @@
     <xf numFmtId="0" fontId="570" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5899,16 +6697,16 @@
     <xf numFmtId="0" fontId="600" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -6033,6 +6831,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -6090,6 +6898,66 @@
     <xf numFmtId="0" fontId="690" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -6261,6 +7129,16 @@
     <xf numFmtId="0" fontId="780" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -6276,7 +7154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="13.125" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -6285,7 +7163,7 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="75.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6384,22 +7262,441 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="31">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="32">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="33">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="35">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="36">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="40">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="31">
+      <c r="A5" t="s" s="41">
         <v>13</v>
+      </c>
+      <c r="B5" t="s" s="42">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="43">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="44">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="51">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="52">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="54">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="55">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="61">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="62">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="64">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="65">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="71">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="72">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="73">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="76">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="81">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.9375" customWidth="true"/>
+    <col min="2" max="2" width="10.3125" customWidth="true"/>
+    <col min="3" max="3" width="4.6875" customWidth="true"/>
+    <col min="4" max="4" width="4.6875" customWidth="true"/>
+    <col min="5" max="5" width="4.6875" customWidth="true"/>
+    <col min="6" max="6" width="4.6875" customWidth="true"/>
+    <col min="7" max="7" width="4.6875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
+    <col min="9" max="9" width="4.6875" customWidth="true"/>
+    <col min="10" max="10" width="72.578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="530">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="535">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="536">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="537">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s" s="538">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="540">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="546">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="547">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="548">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="550">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="551">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="552">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="553">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="554">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="555">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="556">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s" s="557">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s" s="558">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s" s="559">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="560">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="561">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s" s="562">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="566">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="567">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="568">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="570">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="571">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="572">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="574">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="575">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="576">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="577">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="578">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="580">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s" s="581">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="582">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="586">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="587">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="588">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="590">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s" s="591">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="592">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="593">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="594">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="595">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="596">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="597">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="598">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="600">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A9:J9"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6420,136 +7717,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="310">
+      <c r="A1" t="s" s="601">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="311">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="312">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="313">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="314">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="315">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="316">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="317">
+      <c r="B1" t="s" s="602">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="603">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="604">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="605">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="606">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="607">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="608">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="318">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="319">
+      <c r="I1" t="s" s="609">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="610">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="320">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="321">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="322">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="323">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="324">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="325">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="326">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="327">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="328">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="329">
+      <c r="A2" t="s" s="611">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="612">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="615">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="617">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="618">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="619">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="620">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="330">
+      <c r="A3" t="s" s="621">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="331">
+      <c r="B3" t="s" s="622">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="332">
+      <c r="C3" t="s" s="623">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="333">
+      <c r="D3" t="s" s="624">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="334">
+      <c r="E3" t="s" s="625">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="335">
+      <c r="F3" t="s" s="626">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="336">
+      <c r="G3" t="s" s="627">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="337">
+      <c r="H3" t="s" s="628">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="338">
+      <c r="I3" t="s" s="629">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="339">
+      <c r="J3" t="s" s="630">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="340">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="341">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="342">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s" s="343">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="344">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="345">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="346">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="347">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="348">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="349">
+      <c r="A4" t="s" s="631">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s" s="632">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s" s="633">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="634">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="635">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="636">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="637">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="638">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="639">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="640">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="350">
-        <v>13</v>
+      <c r="A6" t="s" s="641">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6557,137 +7854,6 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A6:J6"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
-    <col min="2" max="2" width="10.3125" customWidth="true"/>
-    <col min="3" max="3" width="4.6875" customWidth="true"/>
-    <col min="4" max="4" width="4.6875" customWidth="true"/>
-    <col min="5" max="5" width="4.6875" customWidth="true"/>
-    <col min="6" max="6" width="4.6875" customWidth="true"/>
-    <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="9.375" customWidth="true"/>
-    <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="351">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="352">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="353">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="354">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="355">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="356">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="357">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="358">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s" s="359">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="361">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="362">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="363">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="364">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="365">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="366">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="367">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="368">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="369">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="371">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="372">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="373">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="374">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s" s="375">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s" s="376">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="377">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s" s="378">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s" s="379">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s" s="380">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="381">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6701,7 +7867,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="true"/>
+    <col min="1" max="1" width="17.8125" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -6710,147 +7876,243 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="70.703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="382">
+      <c r="A1" t="s" s="642">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="383">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="384">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="385">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="386">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="387">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="388">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="389">
+      <c r="B1" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="645">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="646">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="647">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="648">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="649">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="390">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="391">
+      <c r="I1" t="s" s="650">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="651">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="392">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="393">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="394">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="395">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="396">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="397">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="398">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="399">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="400">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="401">
+      <c r="A2" t="s" s="652">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="653">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="654">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="657">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="658">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="659">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="660">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="661">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="402">
+      <c r="A3" t="s" s="662">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="403">
+      <c r="B3" t="s" s="663">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="404">
+      <c r="C3" t="s" s="664">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="405">
+      <c r="D3" t="s" s="665">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="406">
+      <c r="E3" t="s" s="666">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="407">
+      <c r="F3" t="s" s="667">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="408">
+      <c r="G3" t="s" s="668">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="409">
+      <c r="H3" t="s" s="669">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="410">
+      <c r="I3" t="s" s="670">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="411">
+      <c r="J3" t="s" s="671">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="412">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="413">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s" s="414">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s" s="415">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="416">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="417">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="418">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="419">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="420">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="421">
+      <c r="A4" t="s" s="672">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s" s="673">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s" s="674">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="675">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="676">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="677">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="678">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="679">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="680">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="682">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s" s="683">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="684">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="685">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="686">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="687">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="688">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="689">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="690">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="691">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="422">
-        <v>13</v>
+      <c r="A6" t="s" s="692">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s" s="693">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s" s="694">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="699">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="700">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="702">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s" s="703">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s" s="704">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="705">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="706">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="707">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="708">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="709">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="710">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="712">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6864,7 +8126,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="13.125" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -6873,115 +8135,179 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="75.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="423">
+      <c r="A1" t="s" s="713">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="424">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="425">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="426">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="427">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="428">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="429">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="430">
+      <c r="B1" t="s" s="714">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="718">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="720">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="431">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="432">
+      <c r="I1" t="s" s="721">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="722">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="433">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="434">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="435">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="436">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="437">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="438">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="439">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="440">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="441">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="442">
+      <c r="A2" t="s" s="723">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="724">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="728">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="730">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="731">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="732">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="443">
+      <c r="A3" t="s" s="733">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="444">
+      <c r="B3" t="s" s="734">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="445">
+      <c r="C3" t="s" s="735">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="446">
+      <c r="D3" t="s" s="736">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="447">
+      <c r="E3" t="s" s="737">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="448">
+      <c r="F3" t="s" s="738">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="449">
+      <c r="G3" t="s" s="739">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="450">
+      <c r="H3" t="s" s="740">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="451">
+      <c r="I3" t="s" s="741">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="452">
+      <c r="J3" t="s" s="742">
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="743">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="744">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s" s="745">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="746">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="747">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="748">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="749">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="750">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="751">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="752">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="453">
-        <v>13</v>
+      <c r="A5" t="s" s="753">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s" s="754">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s" s="755">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="756">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="757">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="758">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="760">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="763">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6995,7 +8321,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="20.625" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -7004,115 +8330,179 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="67.890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="454">
+      <c r="A1" t="s" s="764">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="455">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="456">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="457">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="458">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="459">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="460">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="461">
+      <c r="B1" t="s" s="765">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="766">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="767">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="768">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="770">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="771">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="462">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="463">
+      <c r="I1" t="s" s="772">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="773">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="464">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="465">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="466">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="467">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="468">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="469">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="470">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="471">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="472">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="473">
+      <c r="A2" t="s" s="774">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="775">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="776">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="777">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="778">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="779">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="780">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="781">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="783">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="474">
+      <c r="A3" t="s" s="784">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="475">
+      <c r="B3" t="s" s="785">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="476">
+      <c r="C3" t="s" s="786">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="477">
+      <c r="D3" t="s" s="787">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="478">
+      <c r="E3" t="s" s="788">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="479">
+      <c r="F3" t="s" s="789">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="480">
+      <c r="G3" t="s" s="790">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="481">
+      <c r="H3" t="s" s="791">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="482">
+      <c r="I3" t="s" s="792">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="483">
+      <c r="J3" t="s" s="793">
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="794">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="795">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s" s="796">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="797">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="798">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="799">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="800">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="801">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="802">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="803">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="484">
-        <v>13</v>
+      <c r="A5" t="s" s="804">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s" s="805">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="806">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="807">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="808">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="809">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="810">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="811">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="812">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="814">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7139,175 +8529,207 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="485">
+      <c r="A1" t="s" s="815">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="486">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="487">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="488">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="489">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="490">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="491">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="492">
+      <c r="B1" t="s" s="816">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="817">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="818">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="819">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="820">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="821">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="822">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="493">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="494">
+      <c r="I1" t="s" s="823">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="824">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="495">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="496">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="497">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="498">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="499">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="500">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="501">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="502">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="503">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="504">
+      <c r="A2" t="s" s="825">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="826">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="827">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="828">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="829">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="830">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="831">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="832">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="833">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="834">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="505">
+      <c r="A3" t="s" s="835">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="506">
+      <c r="B3" t="s" s="836">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="507">
+      <c r="C3" t="s" s="837">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="508">
+      <c r="D3" t="s" s="838">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="509">
+      <c r="E3" t="s" s="839">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="510">
+      <c r="F3" t="s" s="840">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="511">
+      <c r="G3" t="s" s="841">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="512">
+      <c r="H3" t="s" s="842">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="513">
+      <c r="I3" t="s" s="843">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="514">
+      <c r="J3" t="s" s="844">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="515">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="516">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="517">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="518">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="519">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="520">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="521">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="522">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="523">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="524">
+      <c r="A4" t="s" s="845">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="846">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s" s="847">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="848">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="849">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="850">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="851">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="852">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="853">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="854">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="525">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="526">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="527">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s" s="528">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="529">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="530">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="531">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="532">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="533">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="535">
-        <v>33</v>
+      <c r="A5" t="s" s="855">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s" s="856">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s" s="857">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="858">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="859">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="860">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="861">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="862">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="863">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="865">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s" s="866">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s" s="867">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="868">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="869">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="870">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="871">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="872">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="873">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="875">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7321,7 +8743,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="13.125" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -7330,115 +8752,243 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="75.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="536">
+      <c r="A1" t="s" s="876">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="537">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="538">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="540">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="541">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="542">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="543">
+      <c r="B1" t="s" s="877">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="878">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="879">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="880">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="881">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="882">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="883">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="544">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="545">
+      <c r="I1" t="s" s="884">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="885">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="546">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="547">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="548">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="549">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="550">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="551">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="552">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="553">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="554">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="555">
+      <c r="A2" t="s" s="886">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="887">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="888">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="889">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="890">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="891">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="892">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="893">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="894">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="895">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="556">
+      <c r="A3" t="s" s="896">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="557">
+      <c r="B3" t="s" s="897">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="558">
+      <c r="C3" t="s" s="898">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="559">
+      <c r="D3" t="s" s="899">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="560">
+      <c r="E3" t="s" s="900">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="561">
+      <c r="F3" t="s" s="901">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="562">
+      <c r="G3" t="s" s="902">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="563">
+      <c r="H3" t="s" s="903">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="564">
+      <c r="I3" t="s" s="904">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="565">
+      <c r="J3" t="s" s="905">
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="906">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s" s="907">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="908">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="909">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="910">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="911">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="912">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="913">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="914">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="915">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="566">
-        <v>33</v>
+      <c r="A5" t="s" s="916">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="917">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s" s="918">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="919">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="920">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="921">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="922">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="923">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="924">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="926">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="927">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="928">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="929">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="930">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="931">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="932">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="933">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="934">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="936">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="937">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s" s="938">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="939">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="940">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="941">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="942">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="943">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="944">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="946">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7465,104 +9015,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="567">
+      <c r="A1" t="s" s="947">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="568">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="569">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="570">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="571">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="572">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="573">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="574">
+      <c r="B1" t="s" s="948">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="949">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="950">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="951">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="952">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="953">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="954">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="575">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="576">
+      <c r="I1" t="s" s="955">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="956">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="577">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="578">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="579">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="580">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="581">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="582">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="583">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="585">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="586">
+      <c r="A2" t="s" s="957">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="958">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="959">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="960">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="961">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="962">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="963">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="964">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="965">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="966">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="587">
+      <c r="A3" t="s" s="967">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="588">
+      <c r="B3" t="s" s="968">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="589">
+      <c r="C3" t="s" s="969">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="590">
+      <c r="D3" t="s" s="970">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="591">
+      <c r="E3" t="s" s="971">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="592">
+      <c r="F3" t="s" s="972">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="593">
+      <c r="G3" t="s" s="973">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="594">
+      <c r="H3" t="s" s="974">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="595">
+      <c r="I3" t="s" s="975">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="596">
+      <c r="J3" t="s" s="976">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="597">
-        <v>33</v>
+      <c r="A5" t="s" s="977">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7583,7 +9133,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="38.4375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -7592,252 +9142,249 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="50.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="598">
+      <c r="A1" t="s" s="978">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="599">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="600">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="601">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="602">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="603">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="604">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="605">
+      <c r="B1" t="s" s="979">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="980">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="981">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="982">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="983">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="984">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="985">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="606">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="607">
+      <c r="I1" t="s" s="986">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="987">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="608">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="609">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="610">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="611">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="612">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="613">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="614">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="615">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="616">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="617">
+      <c r="A2" t="s" s="988">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="989">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="990">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="991">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="992">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="993">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="994">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="995">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="996">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="997">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="618">
+      <c r="A3" t="s" s="998">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="619">
+      <c r="B3" t="s" s="999">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="620">
+      <c r="C3" t="s" s="1000">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="621">
+      <c r="D3" t="s" s="1001">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="622">
+      <c r="E3" t="s" s="1002">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="623">
+      <c r="F3" t="s" s="1003">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="624">
+      <c r="G3" t="s" s="1004">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="625">
+      <c r="H3" t="s" s="1005">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="626">
+      <c r="I3" t="s" s="1006">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="627">
+      <c r="J3" t="s" s="1007">
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="1008">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s" s="1009">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s" s="1010">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="1011">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1012">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1013">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1014">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1015">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1016">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1017">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="628">
-        <v>33</v>
+      <c r="A5" t="s" s="1018">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s" s="1019">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s" s="1020">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="1021">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1022">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1023">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1024">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1025">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1026">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1028">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="1029">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s" s="1030">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="1031">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="1032">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="1033">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="1034">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="1035">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="1036">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="1037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1038">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s" s="1039">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="1040">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="1041">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="1042">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="1043">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="1044">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="1045">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="1046">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1048">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
-    <col min="2" max="2" width="10.3125" customWidth="true"/>
-    <col min="3" max="3" width="4.6875" customWidth="true"/>
-    <col min="4" max="4" width="4.6875" customWidth="true"/>
-    <col min="5" max="5" width="4.6875" customWidth="true"/>
-    <col min="6" max="6" width="4.6875" customWidth="true"/>
-    <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="9.375" customWidth="true"/>
-    <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="629">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="630">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="631">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="632">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="633">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="634">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="635">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="636">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s" s="637">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="638">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="639">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="640">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="641">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="642">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="643">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="644">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="645">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="646">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="647">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="648">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="649">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="650">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="651">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="652">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s" s="653">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s" s="654">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="655">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s" s="656">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s" s="657">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s" s="658">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="659">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7858,143 +9405,658 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="32">
+      <c r="A1" t="s" s="1049">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="33">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="34">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="35">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="36">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="37">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="38">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="39">
+      <c r="B1" t="s" s="1050">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1051">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1052">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1053">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1054">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1055">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1056">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="40">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="41">
+      <c r="I1" t="s" s="1057">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1058">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="43">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="44">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="47">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="51">
+      <c r="A2" t="s" s="1059">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1060">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1061">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1062">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1063">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1064">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1065">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1066">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1067">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1068">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="52">
+      <c r="A3" t="s" s="1069">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="53">
+      <c r="B3" t="s" s="1070">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="54">
+      <c r="C3" t="s" s="1071">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="55">
+      <c r="D3" t="s" s="1072">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="56">
+      <c r="E3" t="s" s="1073">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="57">
+      <c r="F3" t="s" s="1074">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="58">
+      <c r="G3" t="s" s="1075">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="59">
+      <c r="H3" t="s" s="1076">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="60">
+      <c r="I3" t="s" s="1077">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="61">
+      <c r="J3" t="s" s="1078">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="62">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="63">
+      <c r="A4" t="s" s="1079">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s" s="1080">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s" s="1081">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="64">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="71">
+      <c r="D4" t="s" s="1082">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1083">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1084">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1085">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1086">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1087">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1089">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s" s="1090">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s" s="1091">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="1092">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1093">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1094">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1095">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1096">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1097">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1098">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="72">
-        <v>13</v>
+      <c r="A6" t="s" s="1099">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s" s="1100">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s" s="1101">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="1102">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="1103">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="1104">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="1105">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="1106">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="1107">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1109">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s" s="1110">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s" s="1111">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="1112">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="1113">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="1114">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="1115">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="1116">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="1117">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1119">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s" s="1120">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s" s="1121">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="1122">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="1123">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="1124">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="1125">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="1126">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="1127">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1129">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="1130">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s" s="1131">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="1132">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="1133">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="1134">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="1135">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="1136">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="1137">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="1138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1139">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A11:J11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.8125" customWidth="true"/>
+    <col min="2" max="2" width="10.3125" customWidth="true"/>
+    <col min="3" max="3" width="4.6875" customWidth="true"/>
+    <col min="4" max="4" width="4.6875" customWidth="true"/>
+    <col min="5" max="5" width="4.6875" customWidth="true"/>
+    <col min="6" max="6" width="4.6875" customWidth="true"/>
+    <col min="7" max="7" width="4.6875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
+    <col min="9" max="9" width="4.6875" customWidth="true"/>
+    <col min="10" max="10" width="70.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="82">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="89">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="92">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="95">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="99">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="102">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="103">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="104">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="105">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="106">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="107">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="108">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s" s="109">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s" s="110">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s" s="111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="112">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="113">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="114">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="117">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="119">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="120">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="122">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="123">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="124">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="132">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="133">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="134">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="135">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="136">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="137">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="140">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="142">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="143">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="144">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="145">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="152">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="153">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="154">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="155">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="156">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="159">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="162">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="163">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="164">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="172">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="173">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="174">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="179">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="180">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="182">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8008,7 +10070,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="16.875" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8017,140 +10079,140 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="76.328125" customWidth="true"/>
+    <col min="10" max="10" width="71.640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="660">
+      <c r="A1" t="s" s="1140">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="661">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="662">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="663">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="664">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="665">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="666">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="667">
+      <c r="B1" t="s" s="1141">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1142">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1143">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1144">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1145">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1146">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1147">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="668">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="669">
+      <c r="I1" t="s" s="1148">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1149">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="670">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="671">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="672">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="673">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="674">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="675">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="676">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="677">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="678">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="679">
+      <c r="A2" t="s" s="1150">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1151">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1152">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1153">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1154">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1155">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1156">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1157">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1158">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1159">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="680">
+      <c r="A3" t="s" s="1160">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="681">
+      <c r="B3" t="s" s="1161">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="682">
+      <c r="C3" t="s" s="1162">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="683">
+      <c r="D3" t="s" s="1163">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="684">
+      <c r="E3" t="s" s="1164">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="685">
+      <c r="F3" t="s" s="1165">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="686">
+      <c r="G3" t="s" s="1166">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="687">
+      <c r="H3" t="s" s="1167">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="688">
+      <c r="I3" t="s" s="1168">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="689">
+      <c r="J3" t="s" s="1169">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="690">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="691">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s" s="692">
+      <c r="A4" t="s" s="1170">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s" s="1171">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s" s="1172">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="693">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="697">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="698">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="699">
+      <c r="D4" t="s" s="1173">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1174">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1175">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1176">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1177">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1178">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1179">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="700">
-        <v>33</v>
+      <c r="A6" t="s" s="1180">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8184,104 +10246,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="701">
+      <c r="A1" t="s" s="1181">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="702">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="703">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="704">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="705">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="706">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="707">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="708">
+      <c r="B1" t="s" s="1182">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1183">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1184">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1185">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1186">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1187">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1188">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="709">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="710">
+      <c r="I1" t="s" s="1189">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1190">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="711">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="712">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="713">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="714">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="715">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="716">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="717">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="718">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="719">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="720">
+      <c r="A2" t="s" s="1191">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1192">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1193">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1194">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1195">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1196">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1197">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1198">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1199">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1200">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="721">
+      <c r="A3" t="s" s="1201">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="722">
+      <c r="B3" t="s" s="1202">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="723">
+      <c r="C3" t="s" s="1203">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="724">
+      <c r="D3" t="s" s="1204">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="725">
+      <c r="E3" t="s" s="1205">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="726">
+      <c r="F3" t="s" s="1206">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="727">
+      <c r="G3" t="s" s="1207">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="728">
+      <c r="H3" t="s" s="1208">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="729">
+      <c r="I3" t="s" s="1209">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="730">
+      <c r="J3" t="s" s="1210">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="731">
-        <v>33</v>
+      <c r="A5" t="s" s="1211">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8302,7 +10364,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="true"/>
+    <col min="1" max="1" width="15.0" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8311,147 +10373,179 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="73.515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="732">
+      <c r="A1" t="s" s="1212">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="733">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="734">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="735">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="736">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="737">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="738">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="739">
+      <c r="B1" t="s" s="1213">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1214">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1215">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1216">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1217">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1218">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1219">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="740">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="741">
+      <c r="I1" t="s" s="1220">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1221">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="742">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="743">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="744">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="745">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="746">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="747">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="748">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="749">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="750">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="751">
+      <c r="A2" t="s" s="1222">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1223">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1224">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1225">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1226">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1227">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1228">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1229">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1230">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1231">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="752">
+      <c r="A3" t="s" s="1232">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="753">
+      <c r="B3" t="s" s="1233">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="754">
+      <c r="C3" t="s" s="1234">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="755">
+      <c r="D3" t="s" s="1235">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="756">
+      <c r="E3" t="s" s="1236">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="757">
+      <c r="F3" t="s" s="1237">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="758">
+      <c r="G3" t="s" s="1238">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="759">
+      <c r="H3" t="s" s="1239">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="760">
+      <c r="I3" t="s" s="1240">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="761">
+      <c r="J3" t="s" s="1241">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="762">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s" s="763">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s" s="764">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s" s="765">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="766">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="767">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="768">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="769">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="770">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="771">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="772">
-        <v>33</v>
+      <c r="A4" t="s" s="1242">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s" s="1243">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s" s="1244">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s" s="1245">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1246">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1247">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1248">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1249">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1250">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1252">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s" s="1253">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s" s="1254">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s" s="1255">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1256">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1257">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1258">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1259">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1260">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1262">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8465,7 +10559,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="16.875" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8474,115 +10568,307 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="71.640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="773">
+      <c r="A1" t="s" s="1263">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="774">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="775">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="776">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="777">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="778">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="779">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="780">
+      <c r="B1" t="s" s="1264">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1265">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1266">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1267">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1268">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1269">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1270">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="781">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="782">
+      <c r="I1" t="s" s="1271">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1272">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="783">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="784">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="785">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="786">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="787">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="788">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="789">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="790">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="791">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="792">
+      <c r="A2" t="s" s="1273">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1274">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1275">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1276">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1277">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1278">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1279">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1280">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1281">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1282">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="793">
+      <c r="A3" t="s" s="1283">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="794">
+      <c r="B3" t="s" s="1284">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="795">
+      <c r="C3" t="s" s="1285">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="796">
+      <c r="D3" t="s" s="1286">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="797">
+      <c r="E3" t="s" s="1287">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="798">
+      <c r="F3" t="s" s="1288">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="799">
+      <c r="G3" t="s" s="1289">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="800">
+      <c r="H3" t="s" s="1290">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="801">
+      <c r="I3" t="s" s="1291">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="802">
+      <c r="J3" t="s" s="1292">
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="1293">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s" s="1294">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s" s="1295">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="1296">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1297">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1298">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1299">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1300">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1301">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1302">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="803">
-        <v>33</v>
+      <c r="A5" t="s" s="1303">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s" s="1304">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s" s="1305">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="1306">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1307">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1308">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1309">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1310">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1311">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1313">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s" s="1314">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s" s="1315">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="1316">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="1317">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="1318">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="1319">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="1320">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="1321">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="1322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1323">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s" s="1324">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s" s="1325">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s" s="1326">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="1327">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="1328">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="1329">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="1330">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="1331">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="1332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1333">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s" s="1334">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s" s="1335">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="1336">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="1337">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="1338">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="1339">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="1340">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="1341">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="1342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1343">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s" s="1344">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s" s="1345">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="1346">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="1347">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="1348">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="1349">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="1350">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="1351">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="1352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1353">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8609,104 +10895,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="804">
+      <c r="A1" t="s" s="1354">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="805">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="806">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="807">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="808">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="809">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="810">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="811">
+      <c r="B1" t="s" s="1355">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1356">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1357">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1358">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1359">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1360">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1361">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="812">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="813">
+      <c r="I1" t="s" s="1362">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1363">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="814">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="815">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="816">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="817">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="818">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="819">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="820">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="821">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="822">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="823">
+      <c r="A2" t="s" s="1364">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1365">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1366">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1367">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1368">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1369">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1370">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1371">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1372">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1373">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="824">
+      <c r="A3" t="s" s="1374">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="825">
+      <c r="B3" t="s" s="1375">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="826">
+      <c r="C3" t="s" s="1376">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="827">
+      <c r="D3" t="s" s="1377">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="828">
+      <c r="E3" t="s" s="1378">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="829">
+      <c r="F3" t="s" s="1379">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="830">
+      <c r="G3" t="s" s="1380">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="831">
+      <c r="H3" t="s" s="1381">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="832">
+      <c r="I3" t="s" s="1382">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="833">
+      <c r="J3" t="s" s="1383">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="834">
-        <v>33</v>
+      <c r="A5" t="s" s="1384">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8740,104 +11026,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="835">
+      <c r="A1" t="s" s="1385">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="836">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="837">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="838">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="839">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="840">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="841">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="842">
+      <c r="B1" t="s" s="1386">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1387">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1388">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1389">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1390">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1391">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1392">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="843">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="844">
+      <c r="I1" t="s" s="1393">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1394">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="845">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="846">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="847">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="848">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="849">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="850">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="851">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="852">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="853">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="854">
+      <c r="A2" t="s" s="1395">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1396">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1397">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1398">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1399">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1400">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1401">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1402">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1403">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1404">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="855">
+      <c r="A3" t="s" s="1405">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="856">
+      <c r="B3" t="s" s="1406">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="857">
+      <c r="C3" t="s" s="1407">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="858">
+      <c r="D3" t="s" s="1408">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="859">
+      <c r="E3" t="s" s="1409">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="860">
+      <c r="F3" t="s" s="1410">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="861">
+      <c r="G3" t="s" s="1411">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="862">
+      <c r="H3" t="s" s="1412">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="863">
+      <c r="I3" t="s" s="1413">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="864">
+      <c r="J3" t="s" s="1414">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="865">
-        <v>33</v>
+      <c r="A5" t="s" s="1415">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8858,7 +11144,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="10.3125" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8867,115 +11153,147 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="78.203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="866">
+      <c r="A1" t="s" s="1416">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="867">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="868">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="869">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="870">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="871">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="872">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="873">
+      <c r="B1" t="s" s="1417">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1418">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1419">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1420">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1421">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1422">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1423">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="874">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="875">
+      <c r="I1" t="s" s="1424">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1425">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="876">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="877">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="878">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="879">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="880">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="881">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="882">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="883">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="884">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="885">
+      <c r="A2" t="s" s="1426">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1427">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1428">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1429">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1430">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1431">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1432">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1433">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1434">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1435">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="886">
+      <c r="A3" t="s" s="1436">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="887">
+      <c r="B3" t="s" s="1437">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="888">
+      <c r="C3" t="s" s="1438">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="889">
+      <c r="D3" t="s" s="1439">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="890">
+      <c r="E3" t="s" s="1440">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="891">
+      <c r="F3" t="s" s="1441">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="892">
+      <c r="G3" t="s" s="1442">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="893">
+      <c r="H3" t="s" s="1443">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="894">
+      <c r="I3" t="s" s="1444">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="895">
+      <c r="J3" t="s" s="1445">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="896">
-        <v>33</v>
+    <row r="4">
+      <c r="A4" t="s" s="1446">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s" s="1447">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="1448">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="1449">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1450">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1451">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1452">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1453">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1454">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1456">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8989,7 +11307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="14.0625" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -8998,115 +11316,243 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="74.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="73">
+      <c r="A1" t="s" s="183">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="75">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="76">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="79">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="80">
+      <c r="B1" t="s" s="184">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="185">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="188">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="189">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="190">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="82">
+      <c r="I1" t="s" s="191">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="192">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="90">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="91">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="92">
+      <c r="A2" t="s" s="193">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="195">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="196">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="197">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="199">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="200">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="201">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="202">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="93">
+      <c r="A3" t="s" s="203">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="94">
+      <c r="B3" t="s" s="204">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="95">
+      <c r="C3" t="s" s="205">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="96">
+      <c r="D3" t="s" s="206">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="97">
+      <c r="E3" t="s" s="207">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="98">
+      <c r="F3" t="s" s="208">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="99">
+      <c r="G3" t="s" s="209">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="100">
+      <c r="H3" t="s" s="210">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="101">
+      <c r="I3" t="s" s="211">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="102">
+      <c r="J3" t="s" s="212">
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="213">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="214">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="215">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="216">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="217">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="219">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="220">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="221">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="222">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="103">
-        <v>13</v>
+      <c r="A5" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="224">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="225">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="226">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="227">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="228">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="229">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="231">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="233">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="234">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="235">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="236">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="239">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="240">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="241">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="243">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="244">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s" s="245">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="250">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="251">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="253">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9120,7 +11566,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="16.875" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -9129,115 +11575,275 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="71.640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="104">
+      <c r="A1" t="s" s="254">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="107">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="109">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="111">
+      <c r="B1" t="s" s="255">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="260">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="261">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="113">
+      <c r="I1" t="s" s="262">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="263">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="119">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="120">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="121">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="123">
+      <c r="A2" t="s" s="264">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="268">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="269">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="270">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="271">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="272">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="273">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="124">
+      <c r="A3" t="s" s="274">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="125">
+      <c r="B3" t="s" s="275">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="126">
+      <c r="C3" t="s" s="276">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="127">
+      <c r="D3" t="s" s="277">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="128">
+      <c r="E3" t="s" s="278">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="129">
+      <c r="F3" t="s" s="279">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="130">
+      <c r="G3" t="s" s="280">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="131">
+      <c r="H3" t="s" s="281">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="132">
+      <c r="I3" t="s" s="282">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="133">
+      <c r="J3" t="s" s="283">
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="284">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s" s="285">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s" s="286">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="287">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="288">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="289">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="290">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="293">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="s" s="134">
-        <v>13</v>
+      <c r="A5" t="s" s="294">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s" s="295">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="296">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="297">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="298">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="299">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="300">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="304">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s" s="305">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="306">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="308">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="310">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="314">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="315">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="316">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="317">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="318">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="319">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="320">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="321">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="322">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="324">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="325">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="326">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="328">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="329">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="330">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="331">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="334">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9264,104 +11870,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="135">
+      <c r="A1" t="s" s="335">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="137">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="141">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="142">
+      <c r="B1" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="338">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="339">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="340">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="341">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="342">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="144">
+      <c r="I1" t="s" s="343">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="344">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="145">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="149">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="152">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="153">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="154">
+      <c r="A2" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="350">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="351">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="352">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="353">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="354">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="155">
+      <c r="A3" t="s" s="355">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="156">
+      <c r="B3" t="s" s="356">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="157">
+      <c r="C3" t="s" s="357">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="158">
+      <c r="D3" t="s" s="358">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="159">
+      <c r="E3" t="s" s="359">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="160">
+      <c r="F3" t="s" s="360">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="161">
+      <c r="G3" t="s" s="361">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="162">
+      <c r="H3" t="s" s="362">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="163">
+      <c r="I3" t="s" s="363">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="164">
+      <c r="J3" t="s" s="364">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="165">
-        <v>13</v>
+      <c r="A5" t="s" s="365">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9395,136 +12001,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="166">
+      <c r="A1" t="s" s="366">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="167">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="168">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="169">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="170">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="171">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="172">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="173">
+      <c r="B1" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="368">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="369">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="370">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="371">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="373">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="175">
+      <c r="I1" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="375">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="179">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="180">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="181">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="182">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="183">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="184">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="185">
+      <c r="A2" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="378">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="379">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="380">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="382">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="383">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="384">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="385">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="186">
+      <c r="A3" t="s" s="386">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="187">
+      <c r="B3" t="s" s="387">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="188">
+      <c r="C3" t="s" s="388">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="189">
+      <c r="D3" t="s" s="389">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="190">
+      <c r="E3" t="s" s="390">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="191">
+      <c r="F3" t="s" s="391">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="192">
+      <c r="G3" t="s" s="392">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="193">
+      <c r="H3" t="s" s="393">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="194">
+      <c r="I3" t="s" s="394">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="195">
+      <c r="J3" t="s" s="395">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="196">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="197">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="198">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s" s="199">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="200">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="201">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="204">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="205">
+      <c r="A4" t="s" s="396">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="397">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="398">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="404">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="405">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="206">
-        <v>13</v>
+      <c r="A6" t="s" s="406">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9545,7 +12151,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="15.9375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -9554,147 +12160,179 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="76.328125" customWidth="true"/>
+    <col min="10" max="10" width="72.578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="207">
+      <c r="A1" t="s" s="407">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="208">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="211">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="212">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="213">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="214">
+      <c r="B1" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="411">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="413">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="414">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="215">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="216">
+      <c r="I1" t="s" s="415">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="416">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="217">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="218">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="219">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="220">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="221">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="222">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="223">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="224">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="225">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="226">
+      <c r="A2" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="418">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="423">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="426">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="227">
+      <c r="A3" t="s" s="427">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="228">
+      <c r="B3" t="s" s="428">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="229">
+      <c r="C3" t="s" s="429">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="230">
+      <c r="D3" t="s" s="430">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="231">
+      <c r="E3" t="s" s="431">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="232">
+      <c r="F3" t="s" s="432">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="233">
+      <c r="G3" t="s" s="433">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="234">
+      <c r="H3" t="s" s="434">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="235">
+      <c r="I3" t="s" s="435">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="236">
+      <c r="J3" t="s" s="436">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="237">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s" s="238">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s" s="239">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="240">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="241">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="242">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="243">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="244">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="245">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="247">
-        <v>13</v>
+      <c r="A4" t="s" s="437">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s" s="438">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s" s="439">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="440">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="441">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="442">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="443">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="447">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s" s="448">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s" s="449">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="450">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="451">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="453">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="457">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9708,7 +12346,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="10.3125" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
@@ -9717,115 +12355,147 @@
     <col min="7" max="7" width="4.6875" customWidth="true"/>
     <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="80.078125" customWidth="true"/>
+    <col min="10" max="10" width="78.203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="248">
+      <c r="A1" t="s" s="458">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="250">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="251">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="252">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="253">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="254">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="255">
+      <c r="B1" t="s" s="459">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="460">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="461">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="463">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="465">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="256">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="257">
+      <c r="I1" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="467">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="258">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="259">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="260">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="261">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="262">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="263">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="264">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="265">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="266">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="267">
+      <c r="A2" t="s" s="468">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="469">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="470">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="471">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="475">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="476">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="477">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="268">
+      <c r="A3" t="s" s="478">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="269">
+      <c r="B3" t="s" s="479">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="270">
+      <c r="C3" t="s" s="480">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="271">
+      <c r="D3" t="s" s="481">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="272">
+      <c r="E3" t="s" s="482">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="273">
+      <c r="F3" t="s" s="483">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="274">
+      <c r="G3" t="s" s="484">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="275">
+      <c r="H3" t="s" s="485">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="276">
+      <c r="I3" t="s" s="486">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="277">
+      <c r="J3" t="s" s="487">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="278">
-        <v>13</v>
+    <row r="4">
+      <c r="A4" t="s" s="488">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="489">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s" s="490">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s" s="491">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="492">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="493">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="494">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="495">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="496">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="498">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9852,104 +12522,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="279">
+      <c r="A1" t="s" s="499">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="280">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="281">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="282">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="283">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="284">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="285">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="286">
+      <c r="B1" t="s" s="500">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="501">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="503">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="504">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="505">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="506">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="287">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="288">
+      <c r="I1" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="508">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="289">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="290">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="291">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="292">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="293">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="294">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="295">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="296">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="297">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="298">
+      <c r="A2" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="510">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="511">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="512">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="513">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="514">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="515">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="516">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="517">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="518">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="299">
+      <c r="A3" t="s" s="519">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="300">
+      <c r="B3" t="s" s="520">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="301">
+      <c r="C3" t="s" s="521">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="302">
+      <c r="D3" t="s" s="522">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="303">
+      <c r="E3" t="s" s="523">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="304">
+      <c r="F3" t="s" s="524">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="305">
+      <c r="G3" t="s" s="525">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="306">
+      <c r="H3" t="s" s="526">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="307">
+      <c r="I3" t="s" s="527">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="308">
+      <c r="J3" t="s" s="528">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="309">
-        <v>13</v>
+      <c r="A5" t="s" s="529">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
